--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -4827,7 +4827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8986,6 +8986,117 @@
         <v>13108</v>
       </c>
       <c r="I112" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45719.2775749537</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0x30,0x31</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0x32,0x33,0x34,0x35,0x36,0x37,0x38,0x39,0x31,0x32,</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0x33,0x34,</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0x35</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>12337</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2.37062870063916e+23</v>
+      </c>
+      <c r="H113" t="n">
+        <v>13108</v>
+      </c>
+      <c r="I113" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45719.27759667824</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0x30,0x31</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0x32,0x33,0x34,0x35,0x36,0x37,0x38,0x39,0x31,0x32,</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0x33,0x34,</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0x35</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>12337</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2.37062870063916e+23</v>
+      </c>
+      <c r="H114" t="n">
+        <v>13108</v>
+      </c>
+      <c r="I114" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45719.27761994213</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0x30,0x31</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0x32,0x33,0x34,0x35,0x36,0x37,0x38,0x39,0x31,0x32,</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0x33,0x34,</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0x35</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>12337</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2.37062870063916e+23</v>
+      </c>
+      <c r="H115" t="n">
+        <v>13108</v>
+      </c>
+      <c r="I115" t="n">
         <v>53</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2815,6 +2815,339 @@
         <v>400</v>
       </c>
       <c r="I64" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45721.72894113426</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>400</v>
+      </c>
+      <c r="I65" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45721.72896428241</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>400</v>
+      </c>
+      <c r="I66" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45721.72898766203</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>400</v>
+      </c>
+      <c r="I67" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45722.22908445602</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45722.22910648148</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45722.22912973379</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45723.19113143518</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45723.19115481481</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45723.19117797454</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2829,7 +3162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5323,6 +5656,339 @@
         <v>400</v>
       </c>
       <c r="I67" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45721.72988806713</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45721.72991133102</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45721.72993467592</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45722.23020512731</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45722.23022724537</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45722.23025050926</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45723.19124234954</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45723.19126548611</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45723.19128880787</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5337,7 +6003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7720,6 +8386,339 @@
         <v>400</v>
       </c>
       <c r="I64" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45721.72979079861</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>400</v>
+      </c>
+      <c r="I65" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45721.72981402778</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>400</v>
+      </c>
+      <c r="I66" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45721.7298375463</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>400</v>
+      </c>
+      <c r="I67" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45722.23010768519</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45722.23012966435</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45722.23015302084</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45723.19132489583</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45723.19134847222</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45723.19137149306</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x06,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0xff</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
         <v>255</v>
       </c>
     </row>
@@ -7734,7 +8733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10120,6 +11119,450 @@
         <v>3</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45721.72820228009</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>400</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45721.7282258449</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>400</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45721.72824888889</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>400</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45722.22834673611</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45722.22836789352</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45722.22839168982</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45722.72848770834</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45722.72850997685</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45722.72853335648</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45723.22863142361</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45723.22865329861</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45723.22867643519</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3148,6 +3148,117 @@
         <v>400</v>
       </c>
       <c r="I73" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45723.73068421296</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45723.73070747685</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45723.73073074074</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3162,7 +3273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5989,6 +6100,117 @@
         <v>400</v>
       </c>
       <c r="I76" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45723.57866452546</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>400</v>
+      </c>
+      <c r="I77" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45723.57868769676</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>400</v>
+      </c>
+      <c r="I78" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45723.57871084491</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>400</v>
+      </c>
+      <c r="I79" t="n">
         <v>14</v>
       </c>
     </row>
@@ -8733,7 +8955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11563,6 +11785,117 @@
         <v>3</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45723.72877217593</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>400</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45723.72879484954</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>400</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45723.72881799768</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>400</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I469"/>
+  <dimension ref="A1:I472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17800,6 +17800,117 @@
         <v>400</v>
       </c>
       <c r="I469" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>45725.23111297454</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F470" t="n">
+        <v>400</v>
+      </c>
+      <c r="G470" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H470" t="n">
+        <v>400</v>
+      </c>
+      <c r="I470" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>45725.23113506944</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F471" t="n">
+        <v>400</v>
+      </c>
+      <c r="G471" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H471" t="n">
+        <v>400</v>
+      </c>
+      <c r="I471" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>45725.23115855324</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F472" t="n">
+        <v>400</v>
+      </c>
+      <c r="G472" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H472" t="n">
+        <v>400</v>
+      </c>
+      <c r="I472" t="n">
         <v>13</v>
       </c>
     </row>
@@ -17814,7 +17925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I483"/>
+  <dimension ref="A1:I486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35700,6 +35811,117 @@
         <v>400</v>
       </c>
       <c r="I483" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>45725.07909302083</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F484" t="n">
+        <v>400</v>
+      </c>
+      <c r="G484" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H484" t="n">
+        <v>400</v>
+      </c>
+      <c r="I484" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>45725.07911518519</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F485" t="n">
+        <v>400</v>
+      </c>
+      <c r="G485" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H485" t="n">
+        <v>400</v>
+      </c>
+      <c r="I485" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>45725.07913833333</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F486" t="n">
+        <v>400</v>
+      </c>
+      <c r="G486" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H486" t="n">
+        <v>400</v>
+      </c>
+      <c r="I486" t="n">
         <v>14</v>
       </c>
     </row>
@@ -51764,7 +51986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I487"/>
+  <dimension ref="A1:I490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69801,6 +70023,117 @@
         <v>3</v>
       </c>
     </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>45725.22919952546</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F488" t="n">
+        <v>400</v>
+      </c>
+      <c r="G488" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H488" t="n">
+        <v>400</v>
+      </c>
+      <c r="I488" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>45725.22922125</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F489" t="n">
+        <v>400</v>
+      </c>
+      <c r="G489" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H489" t="n">
+        <v>400</v>
+      </c>
+      <c r="I489" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>45725.22924497685</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F490" t="n">
+        <v>400</v>
+      </c>
+      <c r="G490" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H490" t="n">
+        <v>400</v>
+      </c>
+      <c r="I490" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I472"/>
+  <dimension ref="A1:I475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17842,7 +17842,7 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -17879,38 +17879,149 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
+        <v>45725.23113506944</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F472" t="n">
+        <v>400</v>
+      </c>
+      <c r="G472" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H472" t="n">
+        <v>400</v>
+      </c>
+      <c r="I472" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>45725.23113506944</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F473" t="n">
+        <v>400</v>
+      </c>
+      <c r="G473" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H473" t="n">
+        <v>400</v>
+      </c>
+      <c r="I473" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
         <v>45725.23115855324</v>
       </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C472" t="inlineStr">
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D472" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E472" t="inlineStr">
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F472" t="n">
-        <v>400</v>
-      </c>
-      <c r="G472" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H472" t="n">
-        <v>400</v>
-      </c>
-      <c r="I472" t="n">
+      <c r="F474" t="n">
+        <v>400</v>
+      </c>
+      <c r="G474" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H474" t="n">
+        <v>400</v>
+      </c>
+      <c r="I474" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>45725.23115855324</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F475" t="n">
+        <v>400</v>
+      </c>
+      <c r="G475" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H475" t="n">
+        <v>400</v>
+      </c>
+      <c r="I475" t="n">
         <v>13</v>
       </c>
     </row>
@@ -17925,7 +18036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I486"/>
+  <dimension ref="A1:I489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35853,7 +35964,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -35890,38 +36001,149 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
+        <v>45725.07911518519</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F486" t="n">
+        <v>400</v>
+      </c>
+      <c r="G486" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H486" t="n">
+        <v>400</v>
+      </c>
+      <c r="I486" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>45725.07911518519</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F487" t="n">
+        <v>400</v>
+      </c>
+      <c r="G487" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H487" t="n">
+        <v>400</v>
+      </c>
+      <c r="I487" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
         <v>45725.07913833333</v>
       </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C486" t="inlineStr">
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D486" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E486" t="inlineStr">
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F486" t="n">
-        <v>400</v>
-      </c>
-      <c r="G486" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H486" t="n">
-        <v>400</v>
-      </c>
-      <c r="I486" t="n">
+      <c r="F488" t="n">
+        <v>400</v>
+      </c>
+      <c r="G488" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H488" t="n">
+        <v>400</v>
+      </c>
+      <c r="I488" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>45725.07913833333</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F489" t="n">
+        <v>400</v>
+      </c>
+      <c r="G489" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H489" t="n">
+        <v>400</v>
+      </c>
+      <c r="I489" t="n">
         <v>14</v>
       </c>
     </row>
@@ -51986,7 +52208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I490"/>
+  <dimension ref="A1:I493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70062,7 +70284,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -70099,38 +70321,149 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
+        <v>45725.22922125</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F490" t="n">
+        <v>400</v>
+      </c>
+      <c r="G490" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H490" t="n">
+        <v>400</v>
+      </c>
+      <c r="I490" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>45725.22922125</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F491" t="n">
+        <v>400</v>
+      </c>
+      <c r="G491" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H491" t="n">
+        <v>400</v>
+      </c>
+      <c r="I491" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
         <v>45725.22924497685</v>
       </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C490" t="inlineStr">
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D490" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E490" t="inlineStr">
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F490" t="n">
-        <v>400</v>
-      </c>
-      <c r="G490" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H490" t="n">
-        <v>400</v>
-      </c>
-      <c r="I490" t="n">
+      <c r="F492" t="n">
+        <v>400</v>
+      </c>
+      <c r="G492" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H492" t="n">
+        <v>400</v>
+      </c>
+      <c r="I492" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>45725.22924497685</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F493" t="n">
+        <v>400</v>
+      </c>
+      <c r="G493" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H493" t="n">
+        <v>400</v>
+      </c>
+      <c r="I493" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I475"/>
+  <dimension ref="A1:I481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17879,7 +17879,7 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -17990,38 +17990,260 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
+        <v>45725.23113506944</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F475" t="n">
+        <v>400</v>
+      </c>
+      <c r="G475" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H475" t="n">
+        <v>400</v>
+      </c>
+      <c r="I475" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
         <v>45725.23115855324</v>
       </c>
-      <c r="B475" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C475" t="inlineStr">
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D475" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E475" t="inlineStr">
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F475" t="n">
-        <v>400</v>
-      </c>
-      <c r="G475" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H475" t="n">
-        <v>400</v>
-      </c>
-      <c r="I475" t="n">
+      <c r="F476" t="n">
+        <v>400</v>
+      </c>
+      <c r="G476" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H476" t="n">
+        <v>400</v>
+      </c>
+      <c r="I476" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>45725.23115855324</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F477" t="n">
+        <v>400</v>
+      </c>
+      <c r="G477" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H477" t="n">
+        <v>400</v>
+      </c>
+      <c r="I477" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>45725.23115855324</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F478" t="n">
+        <v>400</v>
+      </c>
+      <c r="G478" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H478" t="n">
+        <v>400</v>
+      </c>
+      <c r="I478" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>45725.73125641204</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F479" t="n">
+        <v>400</v>
+      </c>
+      <c r="G479" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H479" t="n">
+        <v>400</v>
+      </c>
+      <c r="I479" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>45725.73127832176</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F480" t="n">
+        <v>400</v>
+      </c>
+      <c r="G480" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H480" t="n">
+        <v>400</v>
+      </c>
+      <c r="I480" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F481" t="n">
+        <v>400</v>
+      </c>
+      <c r="G481" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H481" t="n">
+        <v>400</v>
+      </c>
+      <c r="I481" t="n">
         <v>13</v>
       </c>
     </row>
@@ -18036,7 +18258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I489"/>
+  <dimension ref="A1:I495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36001,7 +36223,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -36075,7 +36297,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -36112,38 +36334,260 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
+        <v>45725.07911518519</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F489" t="n">
+        <v>400</v>
+      </c>
+      <c r="G489" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H489" t="n">
+        <v>400</v>
+      </c>
+      <c r="I489" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
         <v>45725.07913833333</v>
       </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr">
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D489" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E489" t="inlineStr">
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F489" t="n">
-        <v>400</v>
-      </c>
-      <c r="G489" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H489" t="n">
-        <v>400</v>
-      </c>
-      <c r="I489" t="n">
+      <c r="F490" t="n">
+        <v>400</v>
+      </c>
+      <c r="G490" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H490" t="n">
+        <v>400</v>
+      </c>
+      <c r="I490" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>45725.07913833333</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F491" t="n">
+        <v>400</v>
+      </c>
+      <c r="G491" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H491" t="n">
+        <v>400</v>
+      </c>
+      <c r="I491" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>45725.07913833333</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F492" t="n">
+        <v>400</v>
+      </c>
+      <c r="G492" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H492" t="n">
+        <v>400</v>
+      </c>
+      <c r="I492" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>45725.57923533564</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F493" t="n">
+        <v>400</v>
+      </c>
+      <c r="G493" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H493" t="n">
+        <v>400</v>
+      </c>
+      <c r="I493" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>45725.57925716435</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F494" t="n">
+        <v>400</v>
+      </c>
+      <c r="G494" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H494" t="n">
+        <v>400</v>
+      </c>
+      <c r="I494" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F495" t="n">
+        <v>400</v>
+      </c>
+      <c r="G495" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H495" t="n">
+        <v>400</v>
+      </c>
+      <c r="I495" t="n">
         <v>14</v>
       </c>
     </row>
@@ -52208,7 +52652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I493"/>
+  <dimension ref="A1:I499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70321,7 +70765,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -70395,7 +70839,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -70432,38 +70876,260 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
+        <v>45725.22922125</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F493" t="n">
+        <v>400</v>
+      </c>
+      <c r="G493" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H493" t="n">
+        <v>400</v>
+      </c>
+      <c r="I493" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
         <v>45725.22924497685</v>
       </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr">
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D493" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E493" t="inlineStr">
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F493" t="n">
-        <v>400</v>
-      </c>
-      <c r="G493" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H493" t="n">
-        <v>400</v>
-      </c>
-      <c r="I493" t="n">
+      <c r="F494" t="n">
+        <v>400</v>
+      </c>
+      <c r="G494" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H494" t="n">
+        <v>400</v>
+      </c>
+      <c r="I494" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>45725.22924497685</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F495" t="n">
+        <v>400</v>
+      </c>
+      <c r="G495" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H495" t="n">
+        <v>400</v>
+      </c>
+      <c r="I495" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>45725.22924497685</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F496" t="n">
+        <v>400</v>
+      </c>
+      <c r="G496" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H496" t="n">
+        <v>400</v>
+      </c>
+      <c r="I496" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45725.7293421412</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F497" t="n">
+        <v>400</v>
+      </c>
+      <c r="G497" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H497" t="n">
+        <v>400</v>
+      </c>
+      <c r="I497" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45725.72936453704</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F498" t="n">
+        <v>400</v>
+      </c>
+      <c r="G498" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H498" t="n">
+        <v>400</v>
+      </c>
+      <c r="I498" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F499" t="n">
+        <v>400</v>
+      </c>
+      <c r="G499" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H499" t="n">
+        <v>400</v>
+      </c>
+      <c r="I499" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I481"/>
+  <dimension ref="A1:I487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17916,7 +17916,7 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -18064,7 +18064,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -18212,38 +18212,260 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
+        <v>45725.23115855324</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F481" t="n">
+        <v>400</v>
+      </c>
+      <c r="G481" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H481" t="n">
+        <v>400</v>
+      </c>
+      <c r="I481" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>45725.73125641204</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F482" t="n">
+        <v>400</v>
+      </c>
+      <c r="G482" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H482" t="n">
+        <v>400</v>
+      </c>
+      <c r="I482" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>45725.73125641204</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F483" t="n">
+        <v>400</v>
+      </c>
+      <c r="G483" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H483" t="n">
+        <v>400</v>
+      </c>
+      <c r="I483" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>45725.73127832176</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F484" t="n">
+        <v>400</v>
+      </c>
+      <c r="G484" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H484" t="n">
+        <v>400</v>
+      </c>
+      <c r="I484" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>45725.73127832176</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F485" t="n">
+        <v>400</v>
+      </c>
+      <c r="G485" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H485" t="n">
+        <v>400</v>
+      </c>
+      <c r="I485" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
         <v>45725.73130123843</v>
       </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C481" t="inlineStr">
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D481" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E481" t="inlineStr">
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F481" t="n">
-        <v>400</v>
-      </c>
-      <c r="G481" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H481" t="n">
-        <v>400</v>
-      </c>
-      <c r="I481" t="n">
+      <c r="F486" t="n">
+        <v>400</v>
+      </c>
+      <c r="G486" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H486" t="n">
+        <v>400</v>
+      </c>
+      <c r="I486" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F487" t="n">
+        <v>400</v>
+      </c>
+      <c r="G487" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H487" t="n">
+        <v>400</v>
+      </c>
+      <c r="I487" t="n">
         <v>13</v>
       </c>
     </row>
@@ -18258,7 +18480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I495"/>
+  <dimension ref="A1:I501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36260,7 +36482,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -36371,7 +36593,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -36408,7 +36630,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -36482,7 +36704,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -36519,7 +36741,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -36556,38 +36778,260 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
+        <v>45725.07913833333</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F495" t="n">
+        <v>400</v>
+      </c>
+      <c r="G495" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H495" t="n">
+        <v>400</v>
+      </c>
+      <c r="I495" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>45725.57923533564</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F496" t="n">
+        <v>400</v>
+      </c>
+      <c r="G496" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H496" t="n">
+        <v>400</v>
+      </c>
+      <c r="I496" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45725.57923533564</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F497" t="n">
+        <v>400</v>
+      </c>
+      <c r="G497" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H497" t="n">
+        <v>400</v>
+      </c>
+      <c r="I497" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45725.57925716435</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F498" t="n">
+        <v>400</v>
+      </c>
+      <c r="G498" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H498" t="n">
+        <v>400</v>
+      </c>
+      <c r="I498" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45725.57925716435</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F499" t="n">
+        <v>400</v>
+      </c>
+      <c r="G499" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H499" t="n">
+        <v>400</v>
+      </c>
+      <c r="I499" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
         <v>45725.57928042824</v>
       </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C495" t="inlineStr">
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D495" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E495" t="inlineStr">
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F495" t="n">
-        <v>400</v>
-      </c>
-      <c r="G495" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H495" t="n">
-        <v>400</v>
-      </c>
-      <c r="I495" t="n">
+      <c r="F500" t="n">
+        <v>400</v>
+      </c>
+      <c r="G500" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H500" t="n">
+        <v>400</v>
+      </c>
+      <c r="I500" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F501" t="n">
+        <v>400</v>
+      </c>
+      <c r="G501" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H501" t="n">
+        <v>400</v>
+      </c>
+      <c r="I501" t="n">
         <v>14</v>
       </c>
     </row>
@@ -52652,7 +53096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I499"/>
+  <dimension ref="A1:I505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70802,7 +71246,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -70913,7 +71357,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -70950,7 +71394,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -71024,7 +71468,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -71061,7 +71505,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -71098,38 +71542,260 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
+        <v>45725.22924497685</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F499" t="n">
+        <v>400</v>
+      </c>
+      <c r="G499" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H499" t="n">
+        <v>400</v>
+      </c>
+      <c r="I499" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45725.7293421412</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F500" t="n">
+        <v>400</v>
+      </c>
+      <c r="G500" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H500" t="n">
+        <v>400</v>
+      </c>
+      <c r="I500" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45725.7293421412</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F501" t="n">
+        <v>400</v>
+      </c>
+      <c r="G501" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H501" t="n">
+        <v>400</v>
+      </c>
+      <c r="I501" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45725.72936453704</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F502" t="n">
+        <v>400</v>
+      </c>
+      <c r="G502" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H502" t="n">
+        <v>400</v>
+      </c>
+      <c r="I502" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45725.72936453704</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F503" t="n">
+        <v>400</v>
+      </c>
+      <c r="G503" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H503" t="n">
+        <v>400</v>
+      </c>
+      <c r="I503" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
         <v>45725.7293875</v>
       </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C499" t="inlineStr">
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E499" t="inlineStr">
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F499" t="n">
-        <v>400</v>
-      </c>
-      <c r="G499" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H499" t="n">
-        <v>400</v>
-      </c>
-      <c r="I499" t="n">
+      <c r="F504" t="n">
+        <v>400</v>
+      </c>
+      <c r="G504" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H504" t="n">
+        <v>400</v>
+      </c>
+      <c r="I504" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F505" t="n">
+        <v>400</v>
+      </c>
+      <c r="G505" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H505" t="n">
+        <v>400</v>
+      </c>
+      <c r="I505" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I487"/>
+  <dimension ref="A1:I496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17953,7 +17953,7 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -18434,38 +18434,371 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
+        <v>45725.73125641204</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F487" t="n">
+        <v>400</v>
+      </c>
+      <c r="G487" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H487" t="n">
+        <v>400</v>
+      </c>
+      <c r="I487" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>45725.73127832176</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F488" t="n">
+        <v>400</v>
+      </c>
+      <c r="G488" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H488" t="n">
+        <v>400</v>
+      </c>
+      <c r="I488" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>45725.73127832176</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F489" t="n">
+        <v>400</v>
+      </c>
+      <c r="G489" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H489" t="n">
+        <v>400</v>
+      </c>
+      <c r="I489" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>45725.73127832176</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F490" t="n">
+        <v>400</v>
+      </c>
+      <c r="G490" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H490" t="n">
+        <v>400</v>
+      </c>
+      <c r="I490" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
         <v>45725.73130123843</v>
       </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C487" t="inlineStr">
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D487" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E487" t="inlineStr">
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F487" t="n">
-        <v>400</v>
-      </c>
-      <c r="G487" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H487" t="n">
-        <v>400</v>
-      </c>
-      <c r="I487" t="n">
+      <c r="F491" t="n">
+        <v>400</v>
+      </c>
+      <c r="G491" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H491" t="n">
+        <v>400</v>
+      </c>
+      <c r="I491" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F492" t="n">
+        <v>400</v>
+      </c>
+      <c r="G492" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H492" t="n">
+        <v>400</v>
+      </c>
+      <c r="I492" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F493" t="n">
+        <v>400</v>
+      </c>
+      <c r="G493" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H493" t="n">
+        <v>400</v>
+      </c>
+      <c r="I493" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>45726.23139893518</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F494" t="n">
+        <v>400</v>
+      </c>
+      <c r="G494" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H494" t="n">
+        <v>400</v>
+      </c>
+      <c r="I494" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F495" t="n">
+        <v>400</v>
+      </c>
+      <c r="G495" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H495" t="n">
+        <v>400</v>
+      </c>
+      <c r="I495" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F496" t="n">
+        <v>400</v>
+      </c>
+      <c r="G496" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H496" t="n">
+        <v>400</v>
+      </c>
+      <c r="I496" t="n">
         <v>13</v>
       </c>
     </row>
@@ -18480,7 +18813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I501"/>
+  <dimension ref="A1:I510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36519,7 +36852,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -36667,7 +37000,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -36704,7 +37037,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -36815,7 +37148,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -36852,7 +37185,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -36889,7 +37222,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -36926,7 +37259,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -36963,7 +37296,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -37000,38 +37333,371 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
+        <v>45725.57923533564</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F501" t="n">
+        <v>400</v>
+      </c>
+      <c r="G501" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H501" t="n">
+        <v>400</v>
+      </c>
+      <c r="I501" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45725.57925716435</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F502" t="n">
+        <v>400</v>
+      </c>
+      <c r="G502" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H502" t="n">
+        <v>400</v>
+      </c>
+      <c r="I502" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45725.57925716435</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F503" t="n">
+        <v>400</v>
+      </c>
+      <c r="G503" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H503" t="n">
+        <v>400</v>
+      </c>
+      <c r="I503" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>45725.57925716435</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F504" t="n">
+        <v>400</v>
+      </c>
+      <c r="G504" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H504" t="n">
+        <v>400</v>
+      </c>
+      <c r="I504" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
         <v>45725.57928042824</v>
       </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C501" t="inlineStr">
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D501" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E501" t="inlineStr">
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F501" t="n">
-        <v>400</v>
-      </c>
-      <c r="G501" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H501" t="n">
-        <v>400</v>
-      </c>
-      <c r="I501" t="n">
+      <c r="F505" t="n">
+        <v>400</v>
+      </c>
+      <c r="G505" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H505" t="n">
+        <v>400</v>
+      </c>
+      <c r="I505" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F506" t="n">
+        <v>400</v>
+      </c>
+      <c r="G506" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H506" t="n">
+        <v>400</v>
+      </c>
+      <c r="I506" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F507" t="n">
+        <v>400</v>
+      </c>
+      <c r="G507" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H507" t="n">
+        <v>400</v>
+      </c>
+      <c r="I507" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45726.07937777778</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F508" t="n">
+        <v>400</v>
+      </c>
+      <c r="G508" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H508" t="n">
+        <v>400</v>
+      </c>
+      <c r="I508" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F509" t="n">
+        <v>400</v>
+      </c>
+      <c r="G509" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H509" t="n">
+        <v>400</v>
+      </c>
+      <c r="I509" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F510" t="n">
+        <v>400</v>
+      </c>
+      <c r="G510" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H510" t="n">
+        <v>400</v>
+      </c>
+      <c r="I510" t="n">
         <v>14</v>
       </c>
     </row>
@@ -53096,7 +53762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I505"/>
+  <dimension ref="A1:I514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71283,7 +71949,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -71431,7 +72097,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -71468,7 +72134,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -71579,7 +72245,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -71616,7 +72282,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -71653,7 +72319,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -71690,7 +72356,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -71727,7 +72393,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -71764,38 +72430,371 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
+        <v>45725.7293421412</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F505" t="n">
+        <v>400</v>
+      </c>
+      <c r="G505" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H505" t="n">
+        <v>400</v>
+      </c>
+      <c r="I505" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>45725.72936453704</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F506" t="n">
+        <v>400</v>
+      </c>
+      <c r="G506" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H506" t="n">
+        <v>400</v>
+      </c>
+      <c r="I506" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45725.72936453704</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F507" t="n">
+        <v>400</v>
+      </c>
+      <c r="G507" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H507" t="n">
+        <v>400</v>
+      </c>
+      <c r="I507" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45725.72936453704</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F508" t="n">
+        <v>400</v>
+      </c>
+      <c r="G508" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H508" t="n">
+        <v>400</v>
+      </c>
+      <c r="I508" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
         <v>45725.7293875</v>
       </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C505" t="inlineStr">
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D505" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E505" t="inlineStr">
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F505" t="n">
-        <v>400</v>
-      </c>
-      <c r="G505" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H505" t="n">
-        <v>400</v>
-      </c>
-      <c r="I505" t="n">
+      <c r="F509" t="n">
+        <v>400</v>
+      </c>
+      <c r="G509" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H509" t="n">
+        <v>400</v>
+      </c>
+      <c r="I509" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F510" t="n">
+        <v>400</v>
+      </c>
+      <c r="G510" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H510" t="n">
+        <v>400</v>
+      </c>
+      <c r="I510" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F511" t="n">
+        <v>400</v>
+      </c>
+      <c r="G511" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H511" t="n">
+        <v>400</v>
+      </c>
+      <c r="I511" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>45726.2294844213</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F512" t="n">
+        <v>400</v>
+      </c>
+      <c r="G512" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H512" t="n">
+        <v>400</v>
+      </c>
+      <c r="I512" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F513" t="n">
+        <v>400</v>
+      </c>
+      <c r="G513" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H513" t="n">
+        <v>400</v>
+      </c>
+      <c r="I513" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>400</v>
+      </c>
+      <c r="G514" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H514" t="n">
+        <v>400</v>
+      </c>
+      <c r="I514" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I496"/>
+  <dimension ref="A1:I505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17990,7 +17990,7 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -18767,38 +18767,371 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F496" t="n">
+        <v>400</v>
+      </c>
+      <c r="G496" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H496" t="n">
+        <v>400</v>
+      </c>
+      <c r="I496" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F497" t="n">
+        <v>400</v>
+      </c>
+      <c r="G497" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H497" t="n">
+        <v>400</v>
+      </c>
+      <c r="I497" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F498" t="n">
+        <v>400</v>
+      </c>
+      <c r="G498" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H498" t="n">
+        <v>400</v>
+      </c>
+      <c r="I498" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F499" t="n">
+        <v>400</v>
+      </c>
+      <c r="G499" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H499" t="n">
+        <v>400</v>
+      </c>
+      <c r="I499" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>45726.23139893518</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F500" t="n">
+        <v>400</v>
+      </c>
+      <c r="G500" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H500" t="n">
+        <v>400</v>
+      </c>
+      <c r="I500" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45726.23139893518</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F501" t="n">
+        <v>400</v>
+      </c>
+      <c r="G501" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H501" t="n">
+        <v>400</v>
+      </c>
+      <c r="I501" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F502" t="n">
+        <v>400</v>
+      </c>
+      <c r="G502" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H502" t="n">
+        <v>400</v>
+      </c>
+      <c r="I502" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F503" t="n">
+        <v>400</v>
+      </c>
+      <c r="G503" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H503" t="n">
+        <v>400</v>
+      </c>
+      <c r="I503" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
         <v>45726.23144357639</v>
       </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C496" t="inlineStr">
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D496" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E496" t="inlineStr">
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F496" t="n">
-        <v>400</v>
-      </c>
-      <c r="G496" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H496" t="n">
-        <v>400</v>
-      </c>
-      <c r="I496" t="n">
+      <c r="F504" t="n">
+        <v>400</v>
+      </c>
+      <c r="G504" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H504" t="n">
+        <v>400</v>
+      </c>
+      <c r="I504" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F505" t="n">
+        <v>400</v>
+      </c>
+      <c r="G505" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H505" t="n">
+        <v>400</v>
+      </c>
+      <c r="I505" t="n">
         <v>13</v>
       </c>
     </row>
@@ -18813,7 +19146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I510"/>
+  <dimension ref="A1:I519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36889,7 +37222,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -37074,7 +37407,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -37111,7 +37444,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -37259,7 +37592,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -37296,7 +37629,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -37333,7 +37666,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -37370,7 +37703,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -37407,7 +37740,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -37444,7 +37777,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -37481,7 +37814,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -37518,7 +37851,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -37555,7 +37888,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -37592,7 +37925,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -37629,7 +37962,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -37666,38 +37999,371 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F510" t="n">
+        <v>400</v>
+      </c>
+      <c r="G510" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H510" t="n">
+        <v>400</v>
+      </c>
+      <c r="I510" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F511" t="n">
+        <v>400</v>
+      </c>
+      <c r="G511" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H511" t="n">
+        <v>400</v>
+      </c>
+      <c r="I511" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F512" t="n">
+        <v>400</v>
+      </c>
+      <c r="G512" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H512" t="n">
+        <v>400</v>
+      </c>
+      <c r="I512" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F513" t="n">
+        <v>400</v>
+      </c>
+      <c r="G513" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H513" t="n">
+        <v>400</v>
+      </c>
+      <c r="I513" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45726.07937777778</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>400</v>
+      </c>
+      <c r="G514" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H514" t="n">
+        <v>400</v>
+      </c>
+      <c r="I514" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45726.07937777778</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F515" t="n">
+        <v>400</v>
+      </c>
+      <c r="G515" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H515" t="n">
+        <v>400</v>
+      </c>
+      <c r="I515" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F516" t="n">
+        <v>400</v>
+      </c>
+      <c r="G516" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H516" t="n">
+        <v>400</v>
+      </c>
+      <c r="I516" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>400</v>
+      </c>
+      <c r="G517" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H517" t="n">
+        <v>400</v>
+      </c>
+      <c r="I517" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
         <v>45726.07942256945</v>
       </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr">
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D510" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E510" t="inlineStr">
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F510" t="n">
-        <v>400</v>
-      </c>
-      <c r="G510" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H510" t="n">
-        <v>400</v>
-      </c>
-      <c r="I510" t="n">
+      <c r="F518" t="n">
+        <v>400</v>
+      </c>
+      <c r="G518" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H518" t="n">
+        <v>400</v>
+      </c>
+      <c r="I518" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F519" t="n">
+        <v>400</v>
+      </c>
+      <c r="G519" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H519" t="n">
+        <v>400</v>
+      </c>
+      <c r="I519" t="n">
         <v>14</v>
       </c>
     </row>
@@ -53762,7 +54428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I514"/>
+  <dimension ref="A1:I523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71986,7 +72652,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -72171,7 +72837,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -72208,7 +72874,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -72356,7 +73022,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -72393,7 +73059,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -72430,7 +73096,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -72467,7 +73133,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -72504,7 +73170,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -72541,7 +73207,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -72578,7 +73244,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -72615,7 +73281,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -72652,7 +73318,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -72689,7 +73355,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -72726,7 +73392,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -72763,38 +73429,371 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>400</v>
+      </c>
+      <c r="G514" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H514" t="n">
+        <v>400</v>
+      </c>
+      <c r="I514" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F515" t="n">
+        <v>400</v>
+      </c>
+      <c r="G515" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H515" t="n">
+        <v>400</v>
+      </c>
+      <c r="I515" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F516" t="n">
+        <v>400</v>
+      </c>
+      <c r="G516" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H516" t="n">
+        <v>400</v>
+      </c>
+      <c r="I516" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>400</v>
+      </c>
+      <c r="G517" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H517" t="n">
+        <v>400</v>
+      </c>
+      <c r="I517" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>45726.2294844213</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F518" t="n">
+        <v>400</v>
+      </c>
+      <c r="G518" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H518" t="n">
+        <v>400</v>
+      </c>
+      <c r="I518" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>45726.2294844213</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F519" t="n">
+        <v>400</v>
+      </c>
+      <c r="G519" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H519" t="n">
+        <v>400</v>
+      </c>
+      <c r="I519" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F520" t="n">
+        <v>400</v>
+      </c>
+      <c r="G520" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H520" t="n">
+        <v>400</v>
+      </c>
+      <c r="I520" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F521" t="n">
+        <v>400</v>
+      </c>
+      <c r="G521" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H521" t="n">
+        <v>400</v>
+      </c>
+      <c r="I521" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
         <v>45726.22953034722</v>
       </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr">
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D514" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E514" t="inlineStr">
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F514" t="n">
-        <v>400</v>
-      </c>
-      <c r="G514" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H514" t="n">
-        <v>400</v>
-      </c>
-      <c r="I514" t="n">
+      <c r="F522" t="n">
+        <v>400</v>
+      </c>
+      <c r="G522" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H522" t="n">
+        <v>400</v>
+      </c>
+      <c r="I522" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F523" t="n">
+        <v>400</v>
+      </c>
+      <c r="G523" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H523" t="n">
+        <v>400</v>
+      </c>
+      <c r="I523" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I505"/>
+  <dimension ref="A1:I517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18027,7 +18027,7 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -19100,38 +19100,482 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
+        <v>45725.73130123843</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F505" t="n">
+        <v>400</v>
+      </c>
+      <c r="G505" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H505" t="n">
+        <v>400</v>
+      </c>
+      <c r="I505" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>45726.23139893518</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F506" t="n">
+        <v>400</v>
+      </c>
+      <c r="G506" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H506" t="n">
+        <v>400</v>
+      </c>
+      <c r="I506" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45726.23139893518</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F507" t="n">
+        <v>400</v>
+      </c>
+      <c r="G507" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H507" t="n">
+        <v>400</v>
+      </c>
+      <c r="I507" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45726.23139893518</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F508" t="n">
+        <v>400</v>
+      </c>
+      <c r="G508" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H508" t="n">
+        <v>400</v>
+      </c>
+      <c r="I508" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F509" t="n">
+        <v>400</v>
+      </c>
+      <c r="G509" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H509" t="n">
+        <v>400</v>
+      </c>
+      <c r="I509" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F510" t="n">
+        <v>400</v>
+      </c>
+      <c r="G510" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H510" t="n">
+        <v>400</v>
+      </c>
+      <c r="I510" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F511" t="n">
+        <v>400</v>
+      </c>
+      <c r="G511" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H511" t="n">
+        <v>400</v>
+      </c>
+      <c r="I511" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
         <v>45726.23144357639</v>
       </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C505" t="inlineStr">
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D505" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E505" t="inlineStr">
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F505" t="n">
-        <v>400</v>
-      </c>
-      <c r="G505" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H505" t="n">
-        <v>400</v>
-      </c>
-      <c r="I505" t="n">
+      <c r="F512" t="n">
+        <v>400</v>
+      </c>
+      <c r="G512" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H512" t="n">
+        <v>400</v>
+      </c>
+      <c r="I512" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F513" t="n">
+        <v>400</v>
+      </c>
+      <c r="G513" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H513" t="n">
+        <v>400</v>
+      </c>
+      <c r="I513" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>400</v>
+      </c>
+      <c r="G514" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H514" t="n">
+        <v>400</v>
+      </c>
+      <c r="I514" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F515" t="n">
+        <v>400</v>
+      </c>
+      <c r="G515" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H515" t="n">
+        <v>400</v>
+      </c>
+      <c r="I515" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F516" t="n">
+        <v>400</v>
+      </c>
+      <c r="G516" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H516" t="n">
+        <v>400</v>
+      </c>
+      <c r="I516" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>400</v>
+      </c>
+      <c r="G517" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H517" t="n">
+        <v>400</v>
+      </c>
+      <c r="I517" t="n">
         <v>13</v>
       </c>
     </row>
@@ -19146,7 +19590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I519"/>
+  <dimension ref="A1:I531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37259,7 +37703,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -37481,7 +37925,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -37518,7 +37962,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -37703,7 +38147,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -37740,7 +38184,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -37777,7 +38221,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -37851,7 +38295,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -37888,7 +38332,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -37925,7 +38369,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -37962,7 +38406,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -37999,7 +38443,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -38036,7 +38480,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -38073,7 +38517,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -38110,7 +38554,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -38147,7 +38591,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -38184,7 +38628,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -38221,7 +38665,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -38258,7 +38702,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -38295,7 +38739,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -38332,38 +38776,482 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F519" t="n">
+        <v>400</v>
+      </c>
+      <c r="G519" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H519" t="n">
+        <v>400</v>
+      </c>
+      <c r="I519" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>45726.07937777778</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F520" t="n">
+        <v>400</v>
+      </c>
+      <c r="G520" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H520" t="n">
+        <v>400</v>
+      </c>
+      <c r="I520" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>45726.07937777778</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F521" t="n">
+        <v>400</v>
+      </c>
+      <c r="G521" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H521" t="n">
+        <v>400</v>
+      </c>
+      <c r="I521" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>45726.07937777778</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F522" t="n">
+        <v>400</v>
+      </c>
+      <c r="G522" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H522" t="n">
+        <v>400</v>
+      </c>
+      <c r="I522" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F523" t="n">
+        <v>400</v>
+      </c>
+      <c r="G523" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H523" t="n">
+        <v>400</v>
+      </c>
+      <c r="I523" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F524" t="n">
+        <v>400</v>
+      </c>
+      <c r="G524" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H524" t="n">
+        <v>400</v>
+      </c>
+      <c r="I524" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F525" t="n">
+        <v>400</v>
+      </c>
+      <c r="G525" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H525" t="n">
+        <v>400</v>
+      </c>
+      <c r="I525" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
         <v>45726.07942256945</v>
       </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr">
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E519" t="inlineStr">
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F519" t="n">
-        <v>400</v>
-      </c>
-      <c r="G519" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H519" t="n">
-        <v>400</v>
-      </c>
-      <c r="I519" t="n">
+      <c r="F526" t="n">
+        <v>400</v>
+      </c>
+      <c r="G526" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H526" t="n">
+        <v>400</v>
+      </c>
+      <c r="I526" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F527" t="n">
+        <v>400</v>
+      </c>
+      <c r="G527" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H527" t="n">
+        <v>400</v>
+      </c>
+      <c r="I527" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F528" t="n">
+        <v>400</v>
+      </c>
+      <c r="G528" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H528" t="n">
+        <v>400</v>
+      </c>
+      <c r="I528" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F529" t="n">
+        <v>400</v>
+      </c>
+      <c r="G529" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H529" t="n">
+        <v>400</v>
+      </c>
+      <c r="I529" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F530" t="n">
+        <v>400</v>
+      </c>
+      <c r="G530" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H530" t="n">
+        <v>400</v>
+      </c>
+      <c r="I530" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F531" t="n">
+        <v>400</v>
+      </c>
+      <c r="G531" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H531" t="n">
+        <v>400</v>
+      </c>
+      <c r="I531" t="n">
         <v>14</v>
       </c>
     </row>
@@ -54428,7 +55316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I523"/>
+  <dimension ref="A1:I535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72689,7 +73577,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -72911,7 +73799,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -72948,7 +73836,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -73133,7 +74021,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -73170,7 +74058,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -73207,7 +74095,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -73281,7 +74169,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -73318,7 +74206,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -73355,7 +74243,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -73392,7 +74280,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -73429,7 +74317,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -73466,7 +74354,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -73503,7 +74391,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -73540,7 +74428,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -73577,7 +74465,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -73614,7 +74502,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -73651,7 +74539,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -73688,7 +74576,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -73725,7 +74613,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -73762,38 +74650,482 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
+        <v>45725.7293875</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F523" t="n">
+        <v>400</v>
+      </c>
+      <c r="G523" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H523" t="n">
+        <v>400</v>
+      </c>
+      <c r="I523" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>45726.2294844213</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F524" t="n">
+        <v>400</v>
+      </c>
+      <c r="G524" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H524" t="n">
+        <v>400</v>
+      </c>
+      <c r="I524" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>45726.2294844213</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F525" t="n">
+        <v>400</v>
+      </c>
+      <c r="G525" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H525" t="n">
+        <v>400</v>
+      </c>
+      <c r="I525" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>45726.2294844213</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F526" t="n">
+        <v>400</v>
+      </c>
+      <c r="G526" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H526" t="n">
+        <v>400</v>
+      </c>
+      <c r="I526" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F527" t="n">
+        <v>400</v>
+      </c>
+      <c r="G527" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H527" t="n">
+        <v>400</v>
+      </c>
+      <c r="I527" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F528" t="n">
+        <v>400</v>
+      </c>
+      <c r="G528" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H528" t="n">
+        <v>400</v>
+      </c>
+      <c r="I528" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F529" t="n">
+        <v>400</v>
+      </c>
+      <c r="G529" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H529" t="n">
+        <v>400</v>
+      </c>
+      <c r="I529" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
         <v>45726.22953034722</v>
       </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr">
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr">
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F523" t="n">
-        <v>400</v>
-      </c>
-      <c r="G523" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H523" t="n">
-        <v>400</v>
-      </c>
-      <c r="I523" t="n">
+      <c r="F530" t="n">
+        <v>400</v>
+      </c>
+      <c r="G530" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H530" t="n">
+        <v>400</v>
+      </c>
+      <c r="I530" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F531" t="n">
+        <v>400</v>
+      </c>
+      <c r="G531" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H531" t="n">
+        <v>400</v>
+      </c>
+      <c r="I531" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F532" t="n">
+        <v>400</v>
+      </c>
+      <c r="G532" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H532" t="n">
+        <v>400</v>
+      </c>
+      <c r="I532" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F533" t="n">
+        <v>400</v>
+      </c>
+      <c r="G533" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H533" t="n">
+        <v>400</v>
+      </c>
+      <c r="I533" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F534" t="n">
+        <v>400</v>
+      </c>
+      <c r="G534" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H534" t="n">
+        <v>400</v>
+      </c>
+      <c r="I534" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F535" t="n">
+        <v>400</v>
+      </c>
+      <c r="G535" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H535" t="n">
+        <v>400</v>
+      </c>
+      <c r="I535" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I517"/>
+  <dimension ref="A1:I529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18064,7 +18064,7 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -19544,38 +19544,482 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>400</v>
+      </c>
+      <c r="G517" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H517" t="n">
+        <v>400</v>
+      </c>
+      <c r="I517" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F518" t="n">
+        <v>400</v>
+      </c>
+      <c r="G518" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H518" t="n">
+        <v>400</v>
+      </c>
+      <c r="I518" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>45726.23142038195</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F519" t="n">
+        <v>400</v>
+      </c>
+      <c r="G519" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H519" t="n">
+        <v>400</v>
+      </c>
+      <c r="I519" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F520" t="n">
+        <v>400</v>
+      </c>
+      <c r="G520" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H520" t="n">
+        <v>400</v>
+      </c>
+      <c r="I520" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F521" t="n">
+        <v>400</v>
+      </c>
+      <c r="G521" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H521" t="n">
+        <v>400</v>
+      </c>
+      <c r="I521" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F522" t="n">
+        <v>400</v>
+      </c>
+      <c r="G522" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H522" t="n">
+        <v>400</v>
+      </c>
+      <c r="I522" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F523" t="n">
+        <v>400</v>
+      </c>
+      <c r="G523" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H523" t="n">
+        <v>400</v>
+      </c>
+      <c r="I523" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F524" t="n">
+        <v>400</v>
+      </c>
+      <c r="G524" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H524" t="n">
+        <v>400</v>
+      </c>
+      <c r="I524" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F525" t="n">
+        <v>400</v>
+      </c>
+      <c r="G525" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H525" t="n">
+        <v>400</v>
+      </c>
+      <c r="I525" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F526" t="n">
+        <v>400</v>
+      </c>
+      <c r="G526" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H526" t="n">
+        <v>400</v>
+      </c>
+      <c r="I526" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F527" t="n">
+        <v>400</v>
+      </c>
+      <c r="G527" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H527" t="n">
+        <v>400</v>
+      </c>
+      <c r="I527" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
         <v>45726.73158645834</v>
       </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr">
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E517" t="inlineStr">
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F517" t="n">
-        <v>400</v>
-      </c>
-      <c r="G517" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H517" t="n">
-        <v>400</v>
-      </c>
-      <c r="I517" t="n">
+      <c r="F528" t="n">
+        <v>400</v>
+      </c>
+      <c r="G528" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H528" t="n">
+        <v>400</v>
+      </c>
+      <c r="I528" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F529" t="n">
+        <v>400</v>
+      </c>
+      <c r="G529" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H529" t="n">
+        <v>400</v>
+      </c>
+      <c r="I529" t="n">
         <v>13</v>
       </c>
     </row>
@@ -19590,7 +20034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I531"/>
+  <dimension ref="A1:I543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37740,7 +38184,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -37999,7 +38443,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -38036,7 +38480,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -38258,7 +38702,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -38295,7 +38739,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -38332,7 +38776,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -38443,7 +38887,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -38480,7 +38924,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -38517,7 +38961,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -38554,7 +38998,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -38628,7 +39072,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -38665,7 +39109,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -38702,7 +39146,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -38739,7 +39183,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -38776,7 +39220,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -38813,7 +39257,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -38850,7 +39294,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -38887,7 +39331,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -38924,7 +39368,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -38961,7 +39405,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -38998,7 +39442,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -39035,7 +39479,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -39072,7 +39516,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -39109,7 +39553,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -39146,7 +39590,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -39183,7 +39627,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -39220,38 +39664,482 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F531" t="n">
+        <v>400</v>
+      </c>
+      <c r="G531" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H531" t="n">
+        <v>400</v>
+      </c>
+      <c r="I531" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F532" t="n">
+        <v>400</v>
+      </c>
+      <c r="G532" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H532" t="n">
+        <v>400</v>
+      </c>
+      <c r="I532" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F533" t="n">
+        <v>400</v>
+      </c>
+      <c r="G533" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H533" t="n">
+        <v>400</v>
+      </c>
+      <c r="I533" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F534" t="n">
+        <v>400</v>
+      </c>
+      <c r="G534" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H534" t="n">
+        <v>400</v>
+      </c>
+      <c r="I534" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F535" t="n">
+        <v>400</v>
+      </c>
+      <c r="G535" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H535" t="n">
+        <v>400</v>
+      </c>
+      <c r="I535" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F536" t="n">
+        <v>400</v>
+      </c>
+      <c r="G536" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H536" t="n">
+        <v>400</v>
+      </c>
+      <c r="I536" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F537" t="n">
+        <v>400</v>
+      </c>
+      <c r="G537" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H537" t="n">
+        <v>400</v>
+      </c>
+      <c r="I537" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F538" t="n">
+        <v>400</v>
+      </c>
+      <c r="G538" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H538" t="n">
+        <v>400</v>
+      </c>
+      <c r="I538" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F539" t="n">
+        <v>400</v>
+      </c>
+      <c r="G539" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H539" t="n">
+        <v>400</v>
+      </c>
+      <c r="I539" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F540" t="n">
+        <v>400</v>
+      </c>
+      <c r="G540" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H540" t="n">
+        <v>400</v>
+      </c>
+      <c r="I540" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F541" t="n">
+        <v>400</v>
+      </c>
+      <c r="G541" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H541" t="n">
+        <v>400</v>
+      </c>
+      <c r="I541" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
         <v>45726.57956549768</v>
       </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr">
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D531" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E531" t="inlineStr">
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F531" t="n">
-        <v>400</v>
-      </c>
-      <c r="G531" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H531" t="n">
-        <v>400</v>
-      </c>
-      <c r="I531" t="n">
+      <c r="F542" t="n">
+        <v>400</v>
+      </c>
+      <c r="G542" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H542" t="n">
+        <v>400</v>
+      </c>
+      <c r="I542" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F543" t="n">
+        <v>400</v>
+      </c>
+      <c r="G543" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H543" t="n">
+        <v>400</v>
+      </c>
+      <c r="I543" t="n">
         <v>14</v>
       </c>
     </row>
@@ -55316,7 +56204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I535"/>
+  <dimension ref="A1:I547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73614,7 +74502,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -73873,7 +74761,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -73910,7 +74798,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -74132,7 +75020,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -74169,7 +75057,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -74206,7 +75094,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -74317,7 +75205,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -74354,7 +75242,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -74391,7 +75279,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -74428,7 +75316,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -74502,7 +75390,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -74539,7 +75427,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -74576,7 +75464,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -74613,7 +75501,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -74650,7 +75538,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -74687,7 +75575,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -74724,7 +75612,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -74761,7 +75649,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -74798,7 +75686,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -74835,7 +75723,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -74872,7 +75760,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -74909,7 +75797,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -74946,7 +75834,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -74983,7 +75871,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -75020,7 +75908,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -75057,7 +75945,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -75094,38 +75982,482 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F535" t="n">
+        <v>400</v>
+      </c>
+      <c r="G535" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H535" t="n">
+        <v>400</v>
+      </c>
+      <c r="I535" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F536" t="n">
+        <v>400</v>
+      </c>
+      <c r="G536" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H536" t="n">
+        <v>400</v>
+      </c>
+      <c r="I536" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45726.22950657408</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F537" t="n">
+        <v>400</v>
+      </c>
+      <c r="G537" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H537" t="n">
+        <v>400</v>
+      </c>
+      <c r="I537" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F538" t="n">
+        <v>400</v>
+      </c>
+      <c r="G538" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H538" t="n">
+        <v>400</v>
+      </c>
+      <c r="I538" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F539" t="n">
+        <v>400</v>
+      </c>
+      <c r="G539" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H539" t="n">
+        <v>400</v>
+      </c>
+      <c r="I539" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F540" t="n">
+        <v>400</v>
+      </c>
+      <c r="G540" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H540" t="n">
+        <v>400</v>
+      </c>
+      <c r="I540" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F541" t="n">
+        <v>400</v>
+      </c>
+      <c r="G541" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H541" t="n">
+        <v>400</v>
+      </c>
+      <c r="I541" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F542" t="n">
+        <v>400</v>
+      </c>
+      <c r="G542" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H542" t="n">
+        <v>400</v>
+      </c>
+      <c r="I542" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F543" t="n">
+        <v>400</v>
+      </c>
+      <c r="G543" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H543" t="n">
+        <v>400</v>
+      </c>
+      <c r="I543" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F544" t="n">
+        <v>400</v>
+      </c>
+      <c r="G544" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H544" t="n">
+        <v>400</v>
+      </c>
+      <c r="I544" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F545" t="n">
+        <v>400</v>
+      </c>
+      <c r="G545" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H545" t="n">
+        <v>400</v>
+      </c>
+      <c r="I545" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
         <v>45726.72967174769</v>
       </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr">
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E535" t="inlineStr">
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F535" t="n">
-        <v>400</v>
-      </c>
-      <c r="G535" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H535" t="n">
-        <v>400</v>
-      </c>
-      <c r="I535" t="n">
+      <c r="F546" t="n">
+        <v>400</v>
+      </c>
+      <c r="G546" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H546" t="n">
+        <v>400</v>
+      </c>
+      <c r="I546" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F547" t="n">
+        <v>400</v>
+      </c>
+      <c r="G547" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H547" t="n">
+        <v>400</v>
+      </c>
+      <c r="I547" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I529"/>
+  <dimension ref="A1:I544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18101,7 +18101,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -19988,38 +19988,593 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F529" t="n">
+        <v>400</v>
+      </c>
+      <c r="G529" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H529" t="n">
+        <v>400</v>
+      </c>
+      <c r="I529" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F530" t="n">
+        <v>400</v>
+      </c>
+      <c r="G530" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H530" t="n">
+        <v>400</v>
+      </c>
+      <c r="I530" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F531" t="n">
+        <v>400</v>
+      </c>
+      <c r="G531" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H531" t="n">
+        <v>400</v>
+      </c>
+      <c r="I531" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>45726.23144357639</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F532" t="n">
+        <v>400</v>
+      </c>
+      <c r="G532" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H532" t="n">
+        <v>400</v>
+      </c>
+      <c r="I532" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F533" t="n">
+        <v>400</v>
+      </c>
+      <c r="G533" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H533" t="n">
+        <v>400</v>
+      </c>
+      <c r="I533" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F534" t="n">
+        <v>400</v>
+      </c>
+      <c r="G534" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H534" t="n">
+        <v>400</v>
+      </c>
+      <c r="I534" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F535" t="n">
+        <v>400</v>
+      </c>
+      <c r="G535" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H535" t="n">
+        <v>400</v>
+      </c>
+      <c r="I535" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F536" t="n">
+        <v>400</v>
+      </c>
+      <c r="G536" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H536" t="n">
+        <v>400</v>
+      </c>
+      <c r="I536" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F537" t="n">
+        <v>400</v>
+      </c>
+      <c r="G537" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H537" t="n">
+        <v>400</v>
+      </c>
+      <c r="I537" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F538" t="n">
+        <v>400</v>
+      </c>
+      <c r="G538" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H538" t="n">
+        <v>400</v>
+      </c>
+      <c r="I538" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
         <v>45726.73158645834</v>
       </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr">
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D529" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E529" t="inlineStr">
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F529" t="n">
-        <v>400</v>
-      </c>
-      <c r="G529" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H529" t="n">
-        <v>400</v>
-      </c>
-      <c r="I529" t="n">
+      <c r="F539" t="n">
+        <v>400</v>
+      </c>
+      <c r="G539" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H539" t="n">
+        <v>400</v>
+      </c>
+      <c r="I539" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F540" t="n">
+        <v>400</v>
+      </c>
+      <c r="G540" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H540" t="n">
+        <v>400</v>
+      </c>
+      <c r="I540" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F541" t="n">
+        <v>400</v>
+      </c>
+      <c r="G541" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H541" t="n">
+        <v>400</v>
+      </c>
+      <c r="I541" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F542" t="n">
+        <v>400</v>
+      </c>
+      <c r="G542" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H542" t="n">
+        <v>400</v>
+      </c>
+      <c r="I542" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F543" t="n">
+        <v>400</v>
+      </c>
+      <c r="G543" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H543" t="n">
+        <v>400</v>
+      </c>
+      <c r="I543" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F544" t="n">
+        <v>400</v>
+      </c>
+      <c r="G544" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H544" t="n">
+        <v>400</v>
+      </c>
+      <c r="I544" t="n">
         <v>13</v>
       </c>
     </row>
@@ -20034,7 +20589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I543"/>
+  <dimension ref="A1:I558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38221,7 +38776,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -38517,7 +39072,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -38554,7 +39109,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -38813,7 +39368,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -38850,7 +39405,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -38887,7 +39442,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -39035,7 +39590,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -39072,7 +39627,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -39109,7 +39664,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -39146,7 +39701,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -39257,7 +39812,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -39294,7 +39849,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -39331,7 +39886,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -39368,7 +39923,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -39405,7 +39960,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -39479,7 +40034,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -39516,7 +40071,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -39553,7 +40108,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -39590,7 +40145,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -39627,7 +40182,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -39664,7 +40219,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -39701,7 +40256,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -39738,7 +40293,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -39775,7 +40330,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -39812,7 +40367,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -39849,7 +40404,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -39886,7 +40441,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -39923,7 +40478,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -39960,7 +40515,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -39997,7 +40552,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -40034,7 +40589,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -40071,7 +40626,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -40108,38 +40663,593 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F543" t="n">
+        <v>400</v>
+      </c>
+      <c r="G543" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H543" t="n">
+        <v>400</v>
+      </c>
+      <c r="I543" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F544" t="n">
+        <v>400</v>
+      </c>
+      <c r="G544" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H544" t="n">
+        <v>400</v>
+      </c>
+      <c r="I544" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F545" t="n">
+        <v>400</v>
+      </c>
+      <c r="G545" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H545" t="n">
+        <v>400</v>
+      </c>
+      <c r="I545" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F546" t="n">
+        <v>400</v>
+      </c>
+      <c r="G546" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H546" t="n">
+        <v>400</v>
+      </c>
+      <c r="I546" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F547" t="n">
+        <v>400</v>
+      </c>
+      <c r="G547" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H547" t="n">
+        <v>400</v>
+      </c>
+      <c r="I547" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F548" t="n">
+        <v>400</v>
+      </c>
+      <c r="G548" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H548" t="n">
+        <v>400</v>
+      </c>
+      <c r="I548" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F549" t="n">
+        <v>400</v>
+      </c>
+      <c r="G549" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H549" t="n">
+        <v>400</v>
+      </c>
+      <c r="I549" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F550" t="n">
+        <v>400</v>
+      </c>
+      <c r="G550" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H550" t="n">
+        <v>400</v>
+      </c>
+      <c r="I550" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F551" t="n">
+        <v>400</v>
+      </c>
+      <c r="G551" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H551" t="n">
+        <v>400</v>
+      </c>
+      <c r="I551" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F552" t="n">
+        <v>400</v>
+      </c>
+      <c r="G552" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H552" t="n">
+        <v>400</v>
+      </c>
+      <c r="I552" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
         <v>45726.57956549768</v>
       </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr">
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E543" t="inlineStr">
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F543" t="n">
-        <v>400</v>
-      </c>
-      <c r="G543" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H543" t="n">
-        <v>400</v>
-      </c>
-      <c r="I543" t="n">
+      <c r="F553" t="n">
+        <v>400</v>
+      </c>
+      <c r="G553" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H553" t="n">
+        <v>400</v>
+      </c>
+      <c r="I553" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F554" t="n">
+        <v>400</v>
+      </c>
+      <c r="G554" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H554" t="n">
+        <v>400</v>
+      </c>
+      <c r="I554" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F555" t="n">
+        <v>400</v>
+      </c>
+      <c r="G555" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H555" t="n">
+        <v>400</v>
+      </c>
+      <c r="I555" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F556" t="n">
+        <v>400</v>
+      </c>
+      <c r="G556" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H556" t="n">
+        <v>400</v>
+      </c>
+      <c r="I556" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F557" t="n">
+        <v>400</v>
+      </c>
+      <c r="G557" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H557" t="n">
+        <v>400</v>
+      </c>
+      <c r="I557" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F558" t="n">
+        <v>400</v>
+      </c>
+      <c r="G558" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H558" t="n">
+        <v>400</v>
+      </c>
+      <c r="I558" t="n">
         <v>14</v>
       </c>
     </row>
@@ -56204,7 +57314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I547"/>
+  <dimension ref="A1:I562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74539,7 +75649,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -74835,7 +75945,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -74872,7 +75982,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -75131,7 +76241,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -75168,7 +76278,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -75205,7 +76315,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -75353,7 +76463,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -75390,7 +76500,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -75427,7 +76537,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -75464,7 +76574,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -75575,7 +76685,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -75612,7 +76722,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -75649,7 +76759,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -75686,7 +76796,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -75723,7 +76833,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -75797,7 +76907,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -75834,7 +76944,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -75871,7 +76981,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -75908,7 +77018,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -75945,7 +77055,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -75982,7 +77092,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -76019,7 +77129,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -76056,7 +77166,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -76093,7 +77203,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -76130,7 +77240,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -76167,7 +77277,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -76204,7 +77314,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -76241,7 +77351,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -76278,7 +77388,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -76315,7 +77425,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -76352,7 +77462,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -76389,7 +77499,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -76426,38 +77536,593 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F547" t="n">
+        <v>400</v>
+      </c>
+      <c r="G547" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H547" t="n">
+        <v>400</v>
+      </c>
+      <c r="I547" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F548" t="n">
+        <v>400</v>
+      </c>
+      <c r="G548" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H548" t="n">
+        <v>400</v>
+      </c>
+      <c r="I548" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F549" t="n">
+        <v>400</v>
+      </c>
+      <c r="G549" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H549" t="n">
+        <v>400</v>
+      </c>
+      <c r="I549" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45726.22953034722</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F550" t="n">
+        <v>400</v>
+      </c>
+      <c r="G550" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H550" t="n">
+        <v>400</v>
+      </c>
+      <c r="I550" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F551" t="n">
+        <v>400</v>
+      </c>
+      <c r="G551" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H551" t="n">
+        <v>400</v>
+      </c>
+      <c r="I551" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F552" t="n">
+        <v>400</v>
+      </c>
+      <c r="G552" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H552" t="n">
+        <v>400</v>
+      </c>
+      <c r="I552" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F553" t="n">
+        <v>400</v>
+      </c>
+      <c r="G553" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H553" t="n">
+        <v>400</v>
+      </c>
+      <c r="I553" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F554" t="n">
+        <v>400</v>
+      </c>
+      <c r="G554" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H554" t="n">
+        <v>400</v>
+      </c>
+      <c r="I554" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F555" t="n">
+        <v>400</v>
+      </c>
+      <c r="G555" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H555" t="n">
+        <v>400</v>
+      </c>
+      <c r="I555" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F556" t="n">
+        <v>400</v>
+      </c>
+      <c r="G556" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H556" t="n">
+        <v>400</v>
+      </c>
+      <c r="I556" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
         <v>45726.72967174769</v>
       </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr">
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D547" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E547" t="inlineStr">
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F547" t="n">
-        <v>400</v>
-      </c>
-      <c r="G547" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H547" t="n">
-        <v>400</v>
-      </c>
-      <c r="I547" t="n">
+      <c r="F557" t="n">
+        <v>400</v>
+      </c>
+      <c r="G557" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H557" t="n">
+        <v>400</v>
+      </c>
+      <c r="I557" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F558" t="n">
+        <v>400</v>
+      </c>
+      <c r="G558" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H558" t="n">
+        <v>400</v>
+      </c>
+      <c r="I558" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F559" t="n">
+        <v>400</v>
+      </c>
+      <c r="G559" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H559" t="n">
+        <v>400</v>
+      </c>
+      <c r="I559" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F560" t="n">
+        <v>400</v>
+      </c>
+      <c r="G560" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H560" t="n">
+        <v>400</v>
+      </c>
+      <c r="I560" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F561" t="n">
+        <v>400</v>
+      </c>
+      <c r="G561" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H561" t="n">
+        <v>400</v>
+      </c>
+      <c r="I561" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F562" t="n">
+        <v>400</v>
+      </c>
+      <c r="G562" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H562" t="n">
+        <v>400</v>
+      </c>
+      <c r="I562" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I544"/>
+  <dimension ref="A1:I559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18138,7 +18138,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -20543,38 +20543,593 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F544" t="n">
+        <v>400</v>
+      </c>
+      <c r="G544" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H544" t="n">
+        <v>400</v>
+      </c>
+      <c r="I544" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>45726.73154126157</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F545" t="n">
+        <v>400</v>
+      </c>
+      <c r="G545" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H545" t="n">
+        <v>400</v>
+      </c>
+      <c r="I545" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F546" t="n">
+        <v>400</v>
+      </c>
+      <c r="G546" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H546" t="n">
+        <v>400</v>
+      </c>
+      <c r="I546" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F547" t="n">
+        <v>400</v>
+      </c>
+      <c r="G547" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H547" t="n">
+        <v>400</v>
+      </c>
+      <c r="I547" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F548" t="n">
+        <v>400</v>
+      </c>
+      <c r="G548" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H548" t="n">
+        <v>400</v>
+      </c>
+      <c r="I548" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F549" t="n">
+        <v>400</v>
+      </c>
+      <c r="G549" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H549" t="n">
+        <v>400</v>
+      </c>
+      <c r="I549" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F550" t="n">
+        <v>400</v>
+      </c>
+      <c r="G550" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H550" t="n">
+        <v>400</v>
+      </c>
+      <c r="I550" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F551" t="n">
+        <v>400</v>
+      </c>
+      <c r="G551" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H551" t="n">
+        <v>400</v>
+      </c>
+      <c r="I551" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F552" t="n">
+        <v>400</v>
+      </c>
+      <c r="G552" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H552" t="n">
+        <v>400</v>
+      </c>
+      <c r="I552" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F553" t="n">
+        <v>400</v>
+      </c>
+      <c r="G553" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H553" t="n">
+        <v>400</v>
+      </c>
+      <c r="I553" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F554" t="n">
+        <v>400</v>
+      </c>
+      <c r="G554" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H554" t="n">
+        <v>400</v>
+      </c>
+      <c r="I554" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F555" t="n">
+        <v>400</v>
+      </c>
+      <c r="G555" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H555" t="n">
+        <v>400</v>
+      </c>
+      <c r="I555" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F556" t="n">
+        <v>400</v>
+      </c>
+      <c r="G556" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H556" t="n">
+        <v>400</v>
+      </c>
+      <c r="I556" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F557" t="n">
+        <v>400</v>
+      </c>
+      <c r="G557" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H557" t="n">
+        <v>400</v>
+      </c>
+      <c r="I557" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
         <v>45727.23172934028</v>
       </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr">
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E544" t="inlineStr">
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F544" t="n">
-        <v>400</v>
-      </c>
-      <c r="G544" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H544" t="n">
-        <v>400</v>
-      </c>
-      <c r="I544" t="n">
+      <c r="F558" t="n">
+        <v>400</v>
+      </c>
+      <c r="G558" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H558" t="n">
+        <v>400</v>
+      </c>
+      <c r="I558" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F559" t="n">
+        <v>400</v>
+      </c>
+      <c r="G559" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H559" t="n">
+        <v>400</v>
+      </c>
+      <c r="I559" t="n">
         <v>13</v>
       </c>
     </row>
@@ -20589,7 +21144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I558"/>
+  <dimension ref="A1:I573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38813,7 +39368,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -39146,7 +39701,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -39183,7 +39738,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -39479,7 +40034,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -39516,7 +40071,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -39553,7 +40108,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -39738,7 +40293,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -39775,7 +40330,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -39812,7 +40367,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -39849,7 +40404,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -39997,7 +40552,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -40034,7 +40589,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -40071,7 +40626,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -40108,7 +40663,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -40145,7 +40700,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -40256,7 +40811,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -40293,7 +40848,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -40330,7 +40885,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -40367,7 +40922,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -40404,7 +40959,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -40441,7 +40996,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -40478,7 +41033,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -40515,7 +41070,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -40552,7 +41107,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -40589,7 +41144,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -40626,7 +41181,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -40663,7 +41218,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -40700,7 +41255,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -40737,7 +41292,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -40774,7 +41329,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -40811,7 +41366,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -40848,7 +41403,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -40885,7 +41440,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -40922,7 +41477,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -40959,7 +41514,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -40996,7 +41551,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -41033,7 +41588,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -41070,7 +41625,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -41107,7 +41662,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -41144,7 +41699,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57952</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -41181,7 +41736,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57952</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -41218,38 +41773,593 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F558" t="n">
+        <v>400</v>
+      </c>
+      <c r="G558" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H558" t="n">
+        <v>400</v>
+      </c>
+      <c r="I558" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F559" t="n">
+        <v>400</v>
+      </c>
+      <c r="G559" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H559" t="n">
+        <v>400</v>
+      </c>
+      <c r="I559" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F560" t="n">
+        <v>400</v>
+      </c>
+      <c r="G560" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H560" t="n">
+        <v>400</v>
+      </c>
+      <c r="I560" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F561" t="n">
+        <v>400</v>
+      </c>
+      <c r="G561" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H561" t="n">
+        <v>400</v>
+      </c>
+      <c r="I561" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F562" t="n">
+        <v>400</v>
+      </c>
+      <c r="G562" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H562" t="n">
+        <v>400</v>
+      </c>
+      <c r="I562" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F563" t="n">
+        <v>400</v>
+      </c>
+      <c r="G563" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H563" t="n">
+        <v>400</v>
+      </c>
+      <c r="I563" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F564" t="n">
+        <v>400</v>
+      </c>
+      <c r="G564" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H564" t="n">
+        <v>400</v>
+      </c>
+      <c r="I564" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F565" t="n">
+        <v>400</v>
+      </c>
+      <c r="G565" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H565" t="n">
+        <v>400</v>
+      </c>
+      <c r="I565" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F566" t="n">
+        <v>400</v>
+      </c>
+      <c r="G566" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H566" t="n">
+        <v>400</v>
+      </c>
+      <c r="I566" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F567" t="n">
+        <v>400</v>
+      </c>
+      <c r="G567" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H567" t="n">
+        <v>400</v>
+      </c>
+      <c r="I567" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F568" t="n">
+        <v>400</v>
+      </c>
+      <c r="G568" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H568" t="n">
+        <v>400</v>
+      </c>
+      <c r="I568" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F569" t="n">
+        <v>400</v>
+      </c>
+      <c r="G569" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H569" t="n">
+        <v>400</v>
+      </c>
+      <c r="I569" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F570" t="n">
+        <v>400</v>
+      </c>
+      <c r="G570" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H570" t="n">
+        <v>400</v>
+      </c>
+      <c r="I570" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F571" t="n">
+        <v>400</v>
+      </c>
+      <c r="G571" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H571" t="n">
+        <v>400</v>
+      </c>
+      <c r="I571" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
         <v>45727.07970724537</v>
       </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr">
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D558" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr">
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F558" t="n">
-        <v>400</v>
-      </c>
-      <c r="G558" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H558" t="n">
-        <v>400</v>
-      </c>
-      <c r="I558" t="n">
+      <c r="F572" t="n">
+        <v>400</v>
+      </c>
+      <c r="G572" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H572" t="n">
+        <v>400</v>
+      </c>
+      <c r="I572" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F573" t="n">
+        <v>400</v>
+      </c>
+      <c r="G573" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H573" t="n">
+        <v>400</v>
+      </c>
+      <c r="I573" t="n">
         <v>14</v>
       </c>
     </row>
@@ -57314,7 +58424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I562"/>
+  <dimension ref="A1:I577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75686,7 +76796,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -76019,7 +77129,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -76056,7 +77166,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -76352,7 +77462,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -76389,7 +77499,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -76426,7 +77536,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -76611,7 +77721,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -76648,7 +77758,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -76685,7 +77795,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -76722,7 +77832,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -76870,7 +77980,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -76907,7 +78017,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -76944,7 +78054,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -76981,7 +78091,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -77018,7 +78128,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -77129,7 +78239,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -77166,7 +78276,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -77203,7 +78313,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -77240,7 +78350,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -77277,7 +78387,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -77314,7 +78424,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -77351,7 +78461,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -77388,7 +78498,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -77425,7 +78535,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -77462,7 +78572,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -77499,7 +78609,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -77536,7 +78646,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -77573,7 +78683,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -77610,7 +78720,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -77647,7 +78757,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -77684,7 +78794,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -77721,7 +78831,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -77758,7 +78868,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -77795,7 +78905,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -77832,7 +78942,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -77869,7 +78979,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -77906,7 +79016,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -77943,7 +79053,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -77980,7 +79090,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -78017,7 +79127,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -78054,7 +79164,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -78091,38 +79201,593 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F562" t="n">
+        <v>400</v>
+      </c>
+      <c r="G562" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H562" t="n">
+        <v>400</v>
+      </c>
+      <c r="I562" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>45726.72962616898</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F563" t="n">
+        <v>400</v>
+      </c>
+      <c r="G563" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H563" t="n">
+        <v>400</v>
+      </c>
+      <c r="I563" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F564" t="n">
+        <v>400</v>
+      </c>
+      <c r="G564" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H564" t="n">
+        <v>400</v>
+      </c>
+      <c r="I564" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F565" t="n">
+        <v>400</v>
+      </c>
+      <c r="G565" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H565" t="n">
+        <v>400</v>
+      </c>
+      <c r="I565" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F566" t="n">
+        <v>400</v>
+      </c>
+      <c r="G566" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H566" t="n">
+        <v>400</v>
+      </c>
+      <c r="I566" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F567" t="n">
+        <v>400</v>
+      </c>
+      <c r="G567" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H567" t="n">
+        <v>400</v>
+      </c>
+      <c r="I567" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F568" t="n">
+        <v>400</v>
+      </c>
+      <c r="G568" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H568" t="n">
+        <v>400</v>
+      </c>
+      <c r="I568" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F569" t="n">
+        <v>400</v>
+      </c>
+      <c r="G569" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H569" t="n">
+        <v>400</v>
+      </c>
+      <c r="I569" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F570" t="n">
+        <v>400</v>
+      </c>
+      <c r="G570" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H570" t="n">
+        <v>400</v>
+      </c>
+      <c r="I570" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F571" t="n">
+        <v>400</v>
+      </c>
+      <c r="G571" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H571" t="n">
+        <v>400</v>
+      </c>
+      <c r="I571" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F572" t="n">
+        <v>400</v>
+      </c>
+      <c r="G572" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H572" t="n">
+        <v>400</v>
+      </c>
+      <c r="I572" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F573" t="n">
+        <v>400</v>
+      </c>
+      <c r="G573" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H573" t="n">
+        <v>400</v>
+      </c>
+      <c r="I573" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F574" t="n">
+        <v>400</v>
+      </c>
+      <c r="G574" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H574" t="n">
+        <v>400</v>
+      </c>
+      <c r="I574" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F575" t="n">
+        <v>400</v>
+      </c>
+      <c r="G575" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H575" t="n">
+        <v>400</v>
+      </c>
+      <c r="I575" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
         <v>45727.22981358796</v>
       </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr">
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E562" t="inlineStr">
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F562" t="n">
-        <v>400</v>
-      </c>
-      <c r="G562" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H562" t="n">
-        <v>400</v>
-      </c>
-      <c r="I562" t="n">
+      <c r="F576" t="n">
+        <v>400</v>
+      </c>
+      <c r="G576" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H576" t="n">
+        <v>400</v>
+      </c>
+      <c r="I576" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>400</v>
+      </c>
+      <c r="G577" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H577" t="n">
+        <v>400</v>
+      </c>
+      <c r="I577" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I559"/>
+  <dimension ref="A1:I577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -21098,38 +21098,704 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F559" t="n">
+        <v>400</v>
+      </c>
+      <c r="G559" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H559" t="n">
+        <v>400</v>
+      </c>
+      <c r="I559" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>45726.73156329861</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F560" t="n">
+        <v>400</v>
+      </c>
+      <c r="G560" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H560" t="n">
+        <v>400</v>
+      </c>
+      <c r="I560" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F561" t="n">
+        <v>400</v>
+      </c>
+      <c r="G561" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H561" t="n">
+        <v>400</v>
+      </c>
+      <c r="I561" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F562" t="n">
+        <v>400</v>
+      </c>
+      <c r="G562" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H562" t="n">
+        <v>400</v>
+      </c>
+      <c r="I562" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F563" t="n">
+        <v>400</v>
+      </c>
+      <c r="G563" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H563" t="n">
+        <v>400</v>
+      </c>
+      <c r="I563" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F564" t="n">
+        <v>400</v>
+      </c>
+      <c r="G564" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H564" t="n">
+        <v>400</v>
+      </c>
+      <c r="I564" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F565" t="n">
+        <v>400</v>
+      </c>
+      <c r="G565" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H565" t="n">
+        <v>400</v>
+      </c>
+      <c r="I565" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F566" t="n">
+        <v>400</v>
+      </c>
+      <c r="G566" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H566" t="n">
+        <v>400</v>
+      </c>
+      <c r="I566" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F567" t="n">
+        <v>400</v>
+      </c>
+      <c r="G567" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H567" t="n">
+        <v>400</v>
+      </c>
+      <c r="I567" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F568" t="n">
+        <v>400</v>
+      </c>
+      <c r="G568" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H568" t="n">
+        <v>400</v>
+      </c>
+      <c r="I568" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F569" t="n">
+        <v>400</v>
+      </c>
+      <c r="G569" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H569" t="n">
+        <v>400</v>
+      </c>
+      <c r="I569" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F570" t="n">
+        <v>400</v>
+      </c>
+      <c r="G570" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H570" t="n">
+        <v>400</v>
+      </c>
+      <c r="I570" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F571" t="n">
+        <v>400</v>
+      </c>
+      <c r="G571" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H571" t="n">
+        <v>400</v>
+      </c>
+      <c r="I571" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
         <v>45727.23172934028</v>
       </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr">
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr">
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F559" t="n">
-        <v>400</v>
-      </c>
-      <c r="G559" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H559" t="n">
-        <v>400</v>
-      </c>
-      <c r="I559" t="n">
+      <c r="F572" t="n">
+        <v>400</v>
+      </c>
+      <c r="G572" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H572" t="n">
+        <v>400</v>
+      </c>
+      <c r="I572" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F573" t="n">
+        <v>400</v>
+      </c>
+      <c r="G573" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H573" t="n">
+        <v>400</v>
+      </c>
+      <c r="I573" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F574" t="n">
+        <v>400</v>
+      </c>
+      <c r="G574" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H574" t="n">
+        <v>400</v>
+      </c>
+      <c r="I574" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F575" t="n">
+        <v>400</v>
+      </c>
+      <c r="G575" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H575" t="n">
+        <v>400</v>
+      </c>
+      <c r="I575" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F576" t="n">
+        <v>400</v>
+      </c>
+      <c r="G576" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H576" t="n">
+        <v>400</v>
+      </c>
+      <c r="I576" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>400</v>
+      </c>
+      <c r="G577" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H577" t="n">
+        <v>400</v>
+      </c>
+      <c r="I577" t="n">
         <v>13</v>
       </c>
     </row>
@@ -21144,7 +21810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I573"/>
+  <dimension ref="A1:I591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39405,7 +40071,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -39775,7 +40441,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -39812,7 +40478,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -40145,7 +40811,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -40182,7 +40848,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -40219,7 +40885,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -40441,7 +41107,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -40478,7 +41144,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -40515,7 +41181,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -40552,7 +41218,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -40737,7 +41403,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -40774,7 +41440,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -40811,7 +41477,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -40848,7 +41514,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -40885,7 +41551,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -41033,7 +41699,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -41070,7 +41736,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -41107,7 +41773,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -41144,7 +41810,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -41181,7 +41847,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -41218,7 +41884,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -41255,7 +41921,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -41292,7 +41958,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -41329,7 +41995,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -41366,7 +42032,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -41403,7 +42069,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -41440,7 +42106,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -41477,7 +42143,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -41514,7 +42180,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -41551,7 +42217,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -41588,7 +42254,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -41625,7 +42291,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -41662,7 +42328,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -41699,7 +42365,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -41736,7 +42402,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -41773,7 +42439,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -41810,7 +42476,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -41847,7 +42513,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -41884,7 +42550,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -41921,7 +42587,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -41958,7 +42624,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -41995,7 +42661,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -42032,7 +42698,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -42069,7 +42735,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -42106,7 +42772,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -42143,7 +42809,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57952</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -42180,7 +42846,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57952</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -42217,7 +42883,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -42254,7 +42920,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -42291,7 +42957,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -42328,38 +42994,704 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F573" t="n">
+        <v>400</v>
+      </c>
+      <c r="G573" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H573" t="n">
+        <v>400</v>
+      </c>
+      <c r="I573" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F574" t="n">
+        <v>400</v>
+      </c>
+      <c r="G574" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H574" t="n">
+        <v>400</v>
+      </c>
+      <c r="I574" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F575" t="n">
+        <v>400</v>
+      </c>
+      <c r="G575" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H575" t="n">
+        <v>400</v>
+      </c>
+      <c r="I575" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F576" t="n">
+        <v>400</v>
+      </c>
+      <c r="G576" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H576" t="n">
+        <v>400</v>
+      </c>
+      <c r="I576" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>400</v>
+      </c>
+      <c r="G577" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H577" t="n">
+        <v>400</v>
+      </c>
+      <c r="I577" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F578" t="n">
+        <v>400</v>
+      </c>
+      <c r="G578" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H578" t="n">
+        <v>400</v>
+      </c>
+      <c r="I578" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F579" t="n">
+        <v>400</v>
+      </c>
+      <c r="G579" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H579" t="n">
+        <v>400</v>
+      </c>
+      <c r="I579" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F580" t="n">
+        <v>400</v>
+      </c>
+      <c r="G580" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H580" t="n">
+        <v>400</v>
+      </c>
+      <c r="I580" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F581" t="n">
+        <v>400</v>
+      </c>
+      <c r="G581" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H581" t="n">
+        <v>400</v>
+      </c>
+      <c r="I581" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F582" t="n">
+        <v>400</v>
+      </c>
+      <c r="G582" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H582" t="n">
+        <v>400</v>
+      </c>
+      <c r="I582" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F583" t="n">
+        <v>400</v>
+      </c>
+      <c r="G583" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H583" t="n">
+        <v>400</v>
+      </c>
+      <c r="I583" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F584" t="n">
+        <v>400</v>
+      </c>
+      <c r="G584" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H584" t="n">
+        <v>400</v>
+      </c>
+      <c r="I584" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F585" t="n">
+        <v>400</v>
+      </c>
+      <c r="G585" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H585" t="n">
+        <v>400</v>
+      </c>
+      <c r="I585" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
         <v>45727.07970724537</v>
       </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr">
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D573" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E573" t="inlineStr">
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F573" t="n">
-        <v>400</v>
-      </c>
-      <c r="G573" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H573" t="n">
-        <v>400</v>
-      </c>
-      <c r="I573" t="n">
+      <c r="F586" t="n">
+        <v>400</v>
+      </c>
+      <c r="G586" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H586" t="n">
+        <v>400</v>
+      </c>
+      <c r="I586" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F587" t="n">
+        <v>400</v>
+      </c>
+      <c r="G587" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H587" t="n">
+        <v>400</v>
+      </c>
+      <c r="I587" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F588" t="n">
+        <v>400</v>
+      </c>
+      <c r="G588" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H588" t="n">
+        <v>400</v>
+      </c>
+      <c r="I588" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F589" t="n">
+        <v>400</v>
+      </c>
+      <c r="G589" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H589" t="n">
+        <v>400</v>
+      </c>
+      <c r="I589" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F590" t="n">
+        <v>400</v>
+      </c>
+      <c r="G590" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H590" t="n">
+        <v>400</v>
+      </c>
+      <c r="I590" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F591" t="n">
+        <v>400</v>
+      </c>
+      <c r="G591" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H591" t="n">
+        <v>400</v>
+      </c>
+      <c r="I591" t="n">
         <v>14</v>
       </c>
     </row>
@@ -58424,7 +59756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I577"/>
+  <dimension ref="A1:I595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76833,7 +78165,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -77203,7 +78535,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -77240,7 +78572,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -77573,7 +78905,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -77610,7 +78942,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -77647,7 +78979,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -77869,7 +79201,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -77906,7 +79238,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -77943,7 +79275,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -77980,7 +79312,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -78165,7 +79497,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -78202,7 +79534,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -78239,7 +79571,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -78276,7 +79608,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -78313,7 +79645,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -78461,7 +79793,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -78498,7 +79830,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -78535,7 +79867,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -78572,7 +79904,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -78609,7 +79941,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -78646,7 +79978,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -78683,7 +80015,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -78720,7 +80052,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -78757,7 +80089,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -78794,7 +80126,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -78831,7 +80163,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -78868,7 +80200,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -78905,7 +80237,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -78942,7 +80274,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -78979,7 +80311,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -79016,7 +80348,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -79053,7 +80385,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -79090,7 +80422,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -79127,7 +80459,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -79164,7 +80496,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -79201,7 +80533,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -79238,7 +80570,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -79275,7 +80607,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -79312,7 +80644,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -79349,7 +80681,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -79386,7 +80718,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -79423,7 +80755,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -79460,7 +80792,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -79497,7 +80829,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -79534,7 +80866,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -79571,7 +80903,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -79608,7 +80940,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -79645,7 +80977,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -79682,7 +81014,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -79719,7 +81051,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -79756,38 +81088,704 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>400</v>
+      </c>
+      <c r="G577" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H577" t="n">
+        <v>400</v>
+      </c>
+      <c r="I577" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>45726.72964848379</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F578" t="n">
+        <v>400</v>
+      </c>
+      <c r="G578" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H578" t="n">
+        <v>400</v>
+      </c>
+      <c r="I578" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F579" t="n">
+        <v>400</v>
+      </c>
+      <c r="G579" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H579" t="n">
+        <v>400</v>
+      </c>
+      <c r="I579" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F580" t="n">
+        <v>400</v>
+      </c>
+      <c r="G580" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H580" t="n">
+        <v>400</v>
+      </c>
+      <c r="I580" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F581" t="n">
+        <v>400</v>
+      </c>
+      <c r="G581" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H581" t="n">
+        <v>400</v>
+      </c>
+      <c r="I581" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F582" t="n">
+        <v>400</v>
+      </c>
+      <c r="G582" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H582" t="n">
+        <v>400</v>
+      </c>
+      <c r="I582" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F583" t="n">
+        <v>400</v>
+      </c>
+      <c r="G583" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H583" t="n">
+        <v>400</v>
+      </c>
+      <c r="I583" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F584" t="n">
+        <v>400</v>
+      </c>
+      <c r="G584" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H584" t="n">
+        <v>400</v>
+      </c>
+      <c r="I584" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F585" t="n">
+        <v>400</v>
+      </c>
+      <c r="G585" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H585" t="n">
+        <v>400</v>
+      </c>
+      <c r="I585" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F586" t="n">
+        <v>400</v>
+      </c>
+      <c r="G586" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H586" t="n">
+        <v>400</v>
+      </c>
+      <c r="I586" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F587" t="n">
+        <v>400</v>
+      </c>
+      <c r="G587" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H587" t="n">
+        <v>400</v>
+      </c>
+      <c r="I587" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F588" t="n">
+        <v>400</v>
+      </c>
+      <c r="G588" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H588" t="n">
+        <v>400</v>
+      </c>
+      <c r="I588" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F589" t="n">
+        <v>400</v>
+      </c>
+      <c r="G589" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H589" t="n">
+        <v>400</v>
+      </c>
+      <c r="I589" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
         <v>45727.22981358796</v>
       </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr">
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr">
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F577" t="n">
-        <v>400</v>
-      </c>
-      <c r="G577" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H577" t="n">
-        <v>400</v>
-      </c>
-      <c r="I577" t="n">
+      <c r="F590" t="n">
+        <v>400</v>
+      </c>
+      <c r="G590" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H590" t="n">
+        <v>400</v>
+      </c>
+      <c r="I590" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F591" t="n">
+        <v>400</v>
+      </c>
+      <c r="G591" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H591" t="n">
+        <v>400</v>
+      </c>
+      <c r="I591" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F592" t="n">
+        <v>400</v>
+      </c>
+      <c r="G592" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H592" t="n">
+        <v>400</v>
+      </c>
+      <c r="I592" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F593" t="n">
+        <v>400</v>
+      </c>
+      <c r="G593" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H593" t="n">
+        <v>400</v>
+      </c>
+      <c r="I593" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F594" t="n">
+        <v>400</v>
+      </c>
+      <c r="G594" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H594" t="n">
+        <v>400</v>
+      </c>
+      <c r="I594" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>400</v>
+      </c>
+      <c r="G595" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H595" t="n">
+        <v>400</v>
+      </c>
+      <c r="I595" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I577"/>
+  <dimension ref="A1:I595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18212,7 +18212,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -21764,38 +21764,704 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
+        <v>45726.73158645834</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F577" t="n">
+        <v>400</v>
+      </c>
+      <c r="G577" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H577" t="n">
+        <v>400</v>
+      </c>
+      <c r="I577" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F578" t="n">
+        <v>400</v>
+      </c>
+      <c r="G578" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H578" t="n">
+        <v>400</v>
+      </c>
+      <c r="I578" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F579" t="n">
+        <v>400</v>
+      </c>
+      <c r="G579" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H579" t="n">
+        <v>400</v>
+      </c>
+      <c r="I579" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F580" t="n">
+        <v>400</v>
+      </c>
+      <c r="G580" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H580" t="n">
+        <v>400</v>
+      </c>
+      <c r="I580" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>45727.23168409722</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F581" t="n">
+        <v>400</v>
+      </c>
+      <c r="G581" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H581" t="n">
+        <v>400</v>
+      </c>
+      <c r="I581" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F582" t="n">
+        <v>400</v>
+      </c>
+      <c r="G582" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H582" t="n">
+        <v>400</v>
+      </c>
+      <c r="I582" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F583" t="n">
+        <v>400</v>
+      </c>
+      <c r="G583" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H583" t="n">
+        <v>400</v>
+      </c>
+      <c r="I583" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F584" t="n">
+        <v>400</v>
+      </c>
+      <c r="G584" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H584" t="n">
+        <v>400</v>
+      </c>
+      <c r="I584" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F585" t="n">
+        <v>400</v>
+      </c>
+      <c r="G585" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H585" t="n">
+        <v>400</v>
+      </c>
+      <c r="I585" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F586" t="n">
+        <v>400</v>
+      </c>
+      <c r="G586" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H586" t="n">
+        <v>400</v>
+      </c>
+      <c r="I586" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F587" t="n">
+        <v>400</v>
+      </c>
+      <c r="G587" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H587" t="n">
+        <v>400</v>
+      </c>
+      <c r="I587" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F588" t="n">
+        <v>400</v>
+      </c>
+      <c r="G588" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H588" t="n">
+        <v>400</v>
+      </c>
+      <c r="I588" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F589" t="n">
+        <v>400</v>
+      </c>
+      <c r="G589" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H589" t="n">
+        <v>400</v>
+      </c>
+      <c r="I589" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F590" t="n">
+        <v>400</v>
+      </c>
+      <c r="G590" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H590" t="n">
+        <v>400</v>
+      </c>
+      <c r="I590" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F591" t="n">
+        <v>400</v>
+      </c>
+      <c r="G591" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H591" t="n">
+        <v>400</v>
+      </c>
+      <c r="I591" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F592" t="n">
+        <v>400</v>
+      </c>
+      <c r="G592" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H592" t="n">
+        <v>400</v>
+      </c>
+      <c r="I592" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F593" t="n">
+        <v>400</v>
+      </c>
+      <c r="G593" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H593" t="n">
+        <v>400</v>
+      </c>
+      <c r="I593" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
         <v>45727.73187150463</v>
       </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr">
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr">
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F577" t="n">
-        <v>400</v>
-      </c>
-      <c r="G577" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H577" t="n">
-        <v>400</v>
-      </c>
-      <c r="I577" t="n">
+      <c r="F594" t="n">
+        <v>400</v>
+      </c>
+      <c r="G594" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H594" t="n">
+        <v>400</v>
+      </c>
+      <c r="I594" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>400</v>
+      </c>
+      <c r="G595" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H595" t="n">
+        <v>400</v>
+      </c>
+      <c r="I595" t="n">
         <v>13</v>
       </c>
     </row>
@@ -21810,7 +22476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I591"/>
+  <dimension ref="A1:I609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40108,7 +40774,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -40515,7 +41181,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -40552,7 +41218,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -40922,7 +41588,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -40959,7 +41625,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -40996,7 +41662,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -41255,7 +41921,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -41292,7 +41958,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -41329,7 +41995,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -41366,7 +42032,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -41588,7 +42254,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -41625,7 +42291,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -41662,7 +42328,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -41699,7 +42365,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -41736,7 +42402,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -41921,7 +42587,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -41958,7 +42624,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -41995,7 +42661,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -42032,7 +42698,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -42069,7 +42735,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -42106,7 +42772,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -42180,7 +42846,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -42217,7 +42883,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -42254,7 +42920,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -42291,7 +42957,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -42328,7 +42994,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -42365,7 +43031,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -42402,7 +43068,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -42439,7 +43105,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -42476,7 +43142,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -42513,7 +43179,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -42550,7 +43216,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -42587,7 +43253,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -42624,7 +43290,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -42661,7 +43327,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -42698,7 +43364,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -42735,7 +43401,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -42772,7 +43438,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -42809,7 +43475,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -42846,7 +43512,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -42883,7 +43549,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -42920,7 +43586,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -42957,7 +43623,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -42994,7 +43660,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -43031,7 +43697,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -43068,7 +43734,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -43105,7 +43771,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -43142,7 +43808,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -43179,7 +43845,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -43216,7 +43882,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -43253,7 +43919,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -43290,7 +43956,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -43327,7 +43993,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -43364,7 +44030,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -43401,7 +44067,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -43438,7 +44104,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -43475,7 +44141,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -43512,7 +44178,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -43549,7 +44215,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -43586,7 +44252,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -43623,7 +44289,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -43660,38 +44326,704 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F591" t="n">
+        <v>400</v>
+      </c>
+      <c r="G591" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H591" t="n">
+        <v>400</v>
+      </c>
+      <c r="I591" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F592" t="n">
+        <v>400</v>
+      </c>
+      <c r="G592" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H592" t="n">
+        <v>400</v>
+      </c>
+      <c r="I592" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F593" t="n">
+        <v>400</v>
+      </c>
+      <c r="G593" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H593" t="n">
+        <v>400</v>
+      </c>
+      <c r="I593" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F594" t="n">
+        <v>400</v>
+      </c>
+      <c r="G594" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H594" t="n">
+        <v>400</v>
+      </c>
+      <c r="I594" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>400</v>
+      </c>
+      <c r="G595" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H595" t="n">
+        <v>400</v>
+      </c>
+      <c r="I595" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F596" t="n">
+        <v>400</v>
+      </c>
+      <c r="G596" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H596" t="n">
+        <v>400</v>
+      </c>
+      <c r="I596" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F597" t="n">
+        <v>400</v>
+      </c>
+      <c r="G597" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H597" t="n">
+        <v>400</v>
+      </c>
+      <c r="I597" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F598" t="n">
+        <v>400</v>
+      </c>
+      <c r="G598" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H598" t="n">
+        <v>400</v>
+      </c>
+      <c r="I598" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F599" t="n">
+        <v>400</v>
+      </c>
+      <c r="G599" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H599" t="n">
+        <v>400</v>
+      </c>
+      <c r="I599" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F600" t="n">
+        <v>400</v>
+      </c>
+      <c r="G600" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H600" t="n">
+        <v>400</v>
+      </c>
+      <c r="I600" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F601" t="n">
+        <v>400</v>
+      </c>
+      <c r="G601" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H601" t="n">
+        <v>400</v>
+      </c>
+      <c r="I601" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F602" t="n">
+        <v>400</v>
+      </c>
+      <c r="G602" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H602" t="n">
+        <v>400</v>
+      </c>
+      <c r="I602" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F603" t="n">
+        <v>400</v>
+      </c>
+      <c r="G603" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H603" t="n">
+        <v>400</v>
+      </c>
+      <c r="I603" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F604" t="n">
+        <v>400</v>
+      </c>
+      <c r="G604" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H604" t="n">
+        <v>400</v>
+      </c>
+      <c r="I604" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F605" t="n">
+        <v>400</v>
+      </c>
+      <c r="G605" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H605" t="n">
+        <v>400</v>
+      </c>
+      <c r="I605" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F606" t="n">
+        <v>400</v>
+      </c>
+      <c r="G606" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H606" t="n">
+        <v>400</v>
+      </c>
+      <c r="I606" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F607" t="n">
+        <v>400</v>
+      </c>
+      <c r="G607" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H607" t="n">
+        <v>400</v>
+      </c>
+      <c r="I607" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
         <v>45727.57985059028</v>
       </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr">
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D591" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E591" t="inlineStr">
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
         <is>
           <t>0xe</t>
         </is>
       </c>
-      <c r="F591" t="n">
-        <v>400</v>
-      </c>
-      <c r="G591" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H591" t="n">
-        <v>400</v>
-      </c>
-      <c r="I591" t="n">
+      <c r="F608" t="n">
+        <v>400</v>
+      </c>
+      <c r="G608" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H608" t="n">
+        <v>400</v>
+      </c>
+      <c r="I608" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F609" t="n">
+        <v>400</v>
+      </c>
+      <c r="G609" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H609" t="n">
+        <v>400</v>
+      </c>
+      <c r="I609" t="n">
         <v>14</v>
       </c>
     </row>
@@ -59756,7 +61088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I595"/>
+  <dimension ref="A1:I613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78202,7 +79534,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -78609,7 +79941,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -78646,7 +79978,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -79016,7 +80348,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -79053,7 +80385,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -79090,7 +80422,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -79349,7 +80681,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -79386,7 +80718,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -79423,7 +80755,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -79460,7 +80792,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -79682,7 +81014,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -79719,7 +81051,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -79756,7 +81088,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -79793,7 +81125,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -79830,7 +81162,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -80015,7 +81347,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -80052,7 +81384,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -80089,7 +81421,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -80126,7 +81458,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -80163,7 +81495,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -80200,7 +81532,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -80274,7 +81606,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -80311,7 +81643,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -80348,7 +81680,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -80385,7 +81717,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -80422,7 +81754,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -80459,7 +81791,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -80496,7 +81828,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -80533,7 +81865,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -80570,7 +81902,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -80607,7 +81939,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -80644,7 +81976,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -80681,7 +82013,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -80718,7 +82050,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -80755,7 +82087,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -80792,7 +82124,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -80829,7 +82161,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -80866,7 +82198,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -80903,7 +82235,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -80940,7 +82272,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -80977,7 +82309,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -81014,7 +82346,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -81051,7 +82383,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -81088,7 +82420,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -81125,7 +82457,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -81162,7 +82494,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -81199,7 +82531,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -81236,7 +82568,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -81273,7 +82605,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -81310,7 +82642,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -81347,7 +82679,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -81384,7 +82716,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -81421,7 +82753,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -81458,7 +82790,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -81495,7 +82827,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -81532,7 +82864,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -81569,7 +82901,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -81606,7 +82938,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -81643,7 +82975,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -81680,7 +83012,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -81717,7 +83049,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -81754,38 +83086,704 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
+        <v>45726.72967174769</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>400</v>
+      </c>
+      <c r="G595" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H595" t="n">
+        <v>400</v>
+      </c>
+      <c r="I595" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F596" t="n">
+        <v>400</v>
+      </c>
+      <c r="G596" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H596" t="n">
+        <v>400</v>
+      </c>
+      <c r="I596" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F597" t="n">
+        <v>400</v>
+      </c>
+      <c r="G597" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H597" t="n">
+        <v>400</v>
+      </c>
+      <c r="I597" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F598" t="n">
+        <v>400</v>
+      </c>
+      <c r="G598" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H598" t="n">
+        <v>400</v>
+      </c>
+      <c r="I598" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>45727.22976834491</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F599" t="n">
+        <v>400</v>
+      </c>
+      <c r="G599" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H599" t="n">
+        <v>400</v>
+      </c>
+      <c r="I599" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F600" t="n">
+        <v>400</v>
+      </c>
+      <c r="G600" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H600" t="n">
+        <v>400</v>
+      </c>
+      <c r="I600" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F601" t="n">
+        <v>400</v>
+      </c>
+      <c r="G601" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H601" t="n">
+        <v>400</v>
+      </c>
+      <c r="I601" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F602" t="n">
+        <v>400</v>
+      </c>
+      <c r="G602" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H602" t="n">
+        <v>400</v>
+      </c>
+      <c r="I602" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F603" t="n">
+        <v>400</v>
+      </c>
+      <c r="G603" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H603" t="n">
+        <v>400</v>
+      </c>
+      <c r="I603" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F604" t="n">
+        <v>400</v>
+      </c>
+      <c r="G604" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H604" t="n">
+        <v>400</v>
+      </c>
+      <c r="I604" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F605" t="n">
+        <v>400</v>
+      </c>
+      <c r="G605" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H605" t="n">
+        <v>400</v>
+      </c>
+      <c r="I605" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F606" t="n">
+        <v>400</v>
+      </c>
+      <c r="G606" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H606" t="n">
+        <v>400</v>
+      </c>
+      <c r="I606" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F607" t="n">
+        <v>400</v>
+      </c>
+      <c r="G607" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H607" t="n">
+        <v>400</v>
+      </c>
+      <c r="I607" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F608" t="n">
+        <v>400</v>
+      </c>
+      <c r="G608" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H608" t="n">
+        <v>400</v>
+      </c>
+      <c r="I608" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F609" t="n">
+        <v>400</v>
+      </c>
+      <c r="G609" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H609" t="n">
+        <v>400</v>
+      </c>
+      <c r="I609" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F610" t="n">
+        <v>400</v>
+      </c>
+      <c r="G610" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H610" t="n">
+        <v>400</v>
+      </c>
+      <c r="I610" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F611" t="n">
+        <v>400</v>
+      </c>
+      <c r="G611" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H611" t="n">
+        <v>400</v>
+      </c>
+      <c r="I611" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
         <v>45727.72995586805</v>
       </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr">
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr">
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F595" t="n">
-        <v>400</v>
-      </c>
-      <c r="G595" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H595" t="n">
-        <v>400</v>
-      </c>
-      <c r="I595" t="n">
+      <c r="F612" t="n">
+        <v>400</v>
+      </c>
+      <c r="G612" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H612" t="n">
+        <v>400</v>
+      </c>
+      <c r="I612" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F613" t="n">
+        <v>400</v>
+      </c>
+      <c r="G613" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H613" t="n">
+        <v>400</v>
+      </c>
+      <c r="I613" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I595"/>
+  <dimension ref="A1:I616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18249,7 +18249,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -22430,38 +22430,815 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F595" t="n">
+        <v>400</v>
+      </c>
+      <c r="G595" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H595" t="n">
+        <v>400</v>
+      </c>
+      <c r="I595" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F596" t="n">
+        <v>400</v>
+      </c>
+      <c r="G596" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H596" t="n">
+        <v>400</v>
+      </c>
+      <c r="I596" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F597" t="n">
+        <v>400</v>
+      </c>
+      <c r="G597" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H597" t="n">
+        <v>400</v>
+      </c>
+      <c r="I597" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F598" t="n">
+        <v>400</v>
+      </c>
+      <c r="G598" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H598" t="n">
+        <v>400</v>
+      </c>
+      <c r="I598" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>45727.23170618056</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F599" t="n">
+        <v>400</v>
+      </c>
+      <c r="G599" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H599" t="n">
+        <v>400</v>
+      </c>
+      <c r="I599" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F600" t="n">
+        <v>400</v>
+      </c>
+      <c r="G600" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H600" t="n">
+        <v>400</v>
+      </c>
+      <c r="I600" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F601" t="n">
+        <v>400</v>
+      </c>
+      <c r="G601" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H601" t="n">
+        <v>400</v>
+      </c>
+      <c r="I601" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F602" t="n">
+        <v>400</v>
+      </c>
+      <c r="G602" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H602" t="n">
+        <v>400</v>
+      </c>
+      <c r="I602" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F603" t="n">
+        <v>400</v>
+      </c>
+      <c r="G603" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H603" t="n">
+        <v>400</v>
+      </c>
+      <c r="I603" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F604" t="n">
+        <v>400</v>
+      </c>
+      <c r="G604" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H604" t="n">
+        <v>400</v>
+      </c>
+      <c r="I604" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F605" t="n">
+        <v>400</v>
+      </c>
+      <c r="G605" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H605" t="n">
+        <v>400</v>
+      </c>
+      <c r="I605" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F606" t="n">
+        <v>400</v>
+      </c>
+      <c r="G606" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H606" t="n">
+        <v>400</v>
+      </c>
+      <c r="I606" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F607" t="n">
+        <v>400</v>
+      </c>
+      <c r="G607" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H607" t="n">
+        <v>400</v>
+      </c>
+      <c r="I607" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F608" t="n">
+        <v>400</v>
+      </c>
+      <c r="G608" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H608" t="n">
+        <v>400</v>
+      </c>
+      <c r="I608" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F609" t="n">
+        <v>400</v>
+      </c>
+      <c r="G609" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H609" t="n">
+        <v>400</v>
+      </c>
+      <c r="I609" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F610" t="n">
+        <v>400</v>
+      </c>
+      <c r="G610" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H610" t="n">
+        <v>400</v>
+      </c>
+      <c r="I610" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
         <v>45727.73187150463</v>
       </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr">
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr">
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F595" t="n">
-        <v>400</v>
-      </c>
-      <c r="G595" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H595" t="n">
-        <v>400</v>
-      </c>
-      <c r="I595" t="n">
+      <c r="F611" t="n">
+        <v>400</v>
+      </c>
+      <c r="G611" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H611" t="n">
+        <v>400</v>
+      </c>
+      <c r="I611" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F612" t="n">
+        <v>400</v>
+      </c>
+      <c r="G612" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H612" t="n">
+        <v>400</v>
+      </c>
+      <c r="I612" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F613" t="n">
+        <v>400</v>
+      </c>
+      <c r="G613" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H613" t="n">
+        <v>400</v>
+      </c>
+      <c r="I613" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F614" t="n">
+        <v>400</v>
+      </c>
+      <c r="G614" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H614" t="n">
+        <v>400</v>
+      </c>
+      <c r="I614" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F615" t="n">
+        <v>400</v>
+      </c>
+      <c r="G615" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H615" t="n">
+        <v>400</v>
+      </c>
+      <c r="I615" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F616" t="n">
+        <v>400</v>
+      </c>
+      <c r="G616" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H616" t="n">
+        <v>400</v>
+      </c>
+      <c r="I616" t="n">
         <v>13</v>
       </c>
     </row>
@@ -22476,7 +23253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I609"/>
+  <dimension ref="A1:I630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40811,7 +41588,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -41255,7 +42032,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -41292,7 +42069,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -41699,7 +42476,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -41736,7 +42513,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -41773,7 +42550,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -42069,7 +42846,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -42106,7 +42883,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -42143,7 +42920,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -42180,7 +42957,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -42439,7 +43216,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -42476,7 +43253,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -42513,7 +43290,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -42550,7 +43327,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -42587,7 +43364,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -42809,7 +43586,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -42846,7 +43623,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -42883,7 +43660,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -42920,7 +43697,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -42957,7 +43734,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -42994,7 +43771,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -43105,7 +43882,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -43142,7 +43919,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -43179,7 +43956,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -43216,7 +43993,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -43253,7 +44030,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -43290,7 +44067,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -43327,7 +44104,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -43401,7 +44178,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -43438,7 +44215,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -43475,7 +44252,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -43512,7 +44289,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -43549,7 +44326,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -43586,7 +44363,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -43623,7 +44400,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -43660,7 +44437,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -43697,7 +44474,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -43734,7 +44511,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -43771,7 +44548,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -43808,7 +44585,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -43845,7 +44622,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -43882,7 +44659,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -43919,7 +44696,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -43956,7 +44733,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -43993,7 +44770,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -44030,7 +44807,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -44067,7 +44844,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -44104,7 +44881,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -44141,7 +44918,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -44178,7 +44955,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -44215,7 +44992,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -44252,7 +45029,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -44289,7 +45066,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -44326,7 +45103,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -44363,7 +45140,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -44400,7 +45177,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -44437,7 +45214,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -44474,7 +45251,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -44511,7 +45288,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -44548,7 +45325,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -44585,7 +45362,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -44622,7 +45399,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -44659,7 +45436,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -44696,7 +45473,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -44733,7 +45510,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -44770,7 +45547,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -44807,7 +45584,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -44844,7 +45621,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -44881,7 +45658,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -44918,7 +45695,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -44955,7 +45732,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -44992,7 +45769,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -45025,6 +45802,783 @@
       </c>
       <c r="I609" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F610" t="n">
+        <v>400</v>
+      </c>
+      <c r="G610" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H610" t="n">
+        <v>400</v>
+      </c>
+      <c r="I610" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F611" t="n">
+        <v>400</v>
+      </c>
+      <c r="G611" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H611" t="n">
+        <v>400</v>
+      </c>
+      <c r="I611" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F612" t="n">
+        <v>400</v>
+      </c>
+      <c r="G612" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H612" t="n">
+        <v>400</v>
+      </c>
+      <c r="I612" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F613" t="n">
+        <v>400</v>
+      </c>
+      <c r="G613" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H613" t="n">
+        <v>400</v>
+      </c>
+      <c r="I613" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F614" t="n">
+        <v>400</v>
+      </c>
+      <c r="G614" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H614" t="n">
+        <v>400</v>
+      </c>
+      <c r="I614" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F615" t="n">
+        <v>400</v>
+      </c>
+      <c r="G615" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H615" t="n">
+        <v>400</v>
+      </c>
+      <c r="I615" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F616" t="n">
+        <v>400</v>
+      </c>
+      <c r="G616" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H616" t="n">
+        <v>400</v>
+      </c>
+      <c r="I616" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F617" t="n">
+        <v>400</v>
+      </c>
+      <c r="G617" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H617" t="n">
+        <v>400</v>
+      </c>
+      <c r="I617" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F618" t="n">
+        <v>400</v>
+      </c>
+      <c r="G618" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H618" t="n">
+        <v>400</v>
+      </c>
+      <c r="I618" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F619" t="n">
+        <v>400</v>
+      </c>
+      <c r="G619" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H619" t="n">
+        <v>400</v>
+      </c>
+      <c r="I619" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F620" t="n">
+        <v>400</v>
+      </c>
+      <c r="G620" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H620" t="n">
+        <v>400</v>
+      </c>
+      <c r="I620" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F621" t="n">
+        <v>400</v>
+      </c>
+      <c r="G621" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H621" t="n">
+        <v>400</v>
+      </c>
+      <c r="I621" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F622" t="n">
+        <v>400</v>
+      </c>
+      <c r="G622" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H622" t="n">
+        <v>400</v>
+      </c>
+      <c r="I622" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F623" t="n">
+        <v>400</v>
+      </c>
+      <c r="G623" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H623" t="n">
+        <v>400</v>
+      </c>
+      <c r="I623" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F624" t="n">
+        <v>400</v>
+      </c>
+      <c r="G624" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H624" t="n">
+        <v>400</v>
+      </c>
+      <c r="I624" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F625" t="n">
+        <v>400</v>
+      </c>
+      <c r="G625" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H625" t="n">
+        <v>400</v>
+      </c>
+      <c r="I625" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F626" t="n">
+        <v>400</v>
+      </c>
+      <c r="G626" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H626" t="n">
+        <v>400</v>
+      </c>
+      <c r="I626" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F627" t="n">
+        <v>400</v>
+      </c>
+      <c r="G627" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H627" t="n">
+        <v>400</v>
+      </c>
+      <c r="I627" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F628" t="n">
+        <v>400</v>
+      </c>
+      <c r="G628" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H628" t="n">
+        <v>390</v>
+      </c>
+      <c r="I628" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F629" t="n">
+        <v>400</v>
+      </c>
+      <c r="G629" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H629" t="n">
+        <v>390</v>
+      </c>
+      <c r="I629" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F630" t="n">
+        <v>400</v>
+      </c>
+      <c r="G630" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H630" t="n">
+        <v>390</v>
+      </c>
+      <c r="I630" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -61088,7 +62642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I613"/>
+  <dimension ref="A1:I637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79571,7 +81125,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -80015,7 +81569,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -80052,7 +81606,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -80459,7 +82013,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -80496,7 +82050,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -80533,7 +82087,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -80829,7 +82383,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -80866,7 +82420,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -80903,7 +82457,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -80940,7 +82494,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -81199,7 +82753,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -81236,7 +82790,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -81273,7 +82827,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -81310,7 +82864,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -81347,7 +82901,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -81569,7 +83123,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -81606,7 +83160,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -81643,7 +83197,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -81680,7 +83234,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -81717,7 +83271,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -81754,7 +83308,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -81865,7 +83419,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -81902,7 +83456,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -81939,7 +83493,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -81976,7 +83530,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -82013,7 +83567,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -82050,7 +83604,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -82087,7 +83641,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -82161,7 +83715,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -82198,7 +83752,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -82235,7 +83789,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -82272,7 +83826,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -82309,7 +83863,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -82346,7 +83900,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -82383,7 +83937,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -82420,7 +83974,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -82457,7 +84011,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -82494,7 +84048,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -82531,7 +84085,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -82568,7 +84122,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -82605,7 +84159,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -82642,7 +84196,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -82679,7 +84233,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -82716,7 +84270,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -82753,7 +84307,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -82790,7 +84344,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -82827,7 +84381,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -82864,7 +84418,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -82901,7 +84455,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -82938,7 +84492,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -82975,7 +84529,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -83012,7 +84566,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -83049,7 +84603,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -83086,7 +84640,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -83123,7 +84677,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -83160,7 +84714,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -83197,7 +84751,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -83234,7 +84788,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -83271,7 +84825,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -83308,7 +84862,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -83345,7 +84899,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -83382,7 +84936,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -83419,7 +84973,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -83456,7 +85010,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -83493,7 +85047,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -83530,7 +85084,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -83567,7 +85121,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -83604,7 +85158,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -83641,7 +85195,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -83678,7 +85232,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -83715,7 +85269,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -83752,38 +85306,926 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F613" t="n">
+        <v>400</v>
+      </c>
+      <c r="G613" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H613" t="n">
+        <v>400</v>
+      </c>
+      <c r="I613" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F614" t="n">
+        <v>400</v>
+      </c>
+      <c r="G614" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H614" t="n">
+        <v>400</v>
+      </c>
+      <c r="I614" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F615" t="n">
+        <v>400</v>
+      </c>
+      <c r="G615" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H615" t="n">
+        <v>400</v>
+      </c>
+      <c r="I615" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F616" t="n">
+        <v>400</v>
+      </c>
+      <c r="G616" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H616" t="n">
+        <v>400</v>
+      </c>
+      <c r="I616" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>45727.22979072916</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F617" t="n">
+        <v>400</v>
+      </c>
+      <c r="G617" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H617" t="n">
+        <v>400</v>
+      </c>
+      <c r="I617" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F618" t="n">
+        <v>400</v>
+      </c>
+      <c r="G618" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H618" t="n">
+        <v>400</v>
+      </c>
+      <c r="I618" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F619" t="n">
+        <v>400</v>
+      </c>
+      <c r="G619" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H619" t="n">
+        <v>400</v>
+      </c>
+      <c r="I619" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F620" t="n">
+        <v>400</v>
+      </c>
+      <c r="G620" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H620" t="n">
+        <v>400</v>
+      </c>
+      <c r="I620" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F621" t="n">
+        <v>400</v>
+      </c>
+      <c r="G621" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H621" t="n">
+        <v>400</v>
+      </c>
+      <c r="I621" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F622" t="n">
+        <v>400</v>
+      </c>
+      <c r="G622" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H622" t="n">
+        <v>400</v>
+      </c>
+      <c r="I622" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F623" t="n">
+        <v>400</v>
+      </c>
+      <c r="G623" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H623" t="n">
+        <v>400</v>
+      </c>
+      <c r="I623" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F624" t="n">
+        <v>400</v>
+      </c>
+      <c r="G624" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H624" t="n">
+        <v>400</v>
+      </c>
+      <c r="I624" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F625" t="n">
+        <v>400</v>
+      </c>
+      <c r="G625" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H625" t="n">
+        <v>400</v>
+      </c>
+      <c r="I625" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F626" t="n">
+        <v>400</v>
+      </c>
+      <c r="G626" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H626" t="n">
+        <v>400</v>
+      </c>
+      <c r="I626" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F627" t="n">
+        <v>400</v>
+      </c>
+      <c r="G627" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H627" t="n">
+        <v>400</v>
+      </c>
+      <c r="I627" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F628" t="n">
+        <v>400</v>
+      </c>
+      <c r="G628" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H628" t="n">
+        <v>400</v>
+      </c>
+      <c r="I628" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
         <v>45727.72995586805</v>
       </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr">
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E613" t="inlineStr">
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F613" t="n">
-        <v>400</v>
-      </c>
-      <c r="G613" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H613" t="n">
-        <v>400</v>
-      </c>
-      <c r="I613" t="n">
+      <c r="F629" t="n">
+        <v>400</v>
+      </c>
+      <c r="G629" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H629" t="n">
+        <v>400</v>
+      </c>
+      <c r="I629" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F630" t="n">
+        <v>400</v>
+      </c>
+      <c r="G630" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H630" t="n">
+        <v>400</v>
+      </c>
+      <c r="I630" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F631" t="n">
+        <v>400</v>
+      </c>
+      <c r="G631" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H631" t="n">
+        <v>400</v>
+      </c>
+      <c r="I631" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F632" t="n">
+        <v>400</v>
+      </c>
+      <c r="G632" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H632" t="n">
+        <v>400</v>
+      </c>
+      <c r="I632" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F633" t="n">
+        <v>400</v>
+      </c>
+      <c r="G633" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H633" t="n">
+        <v>400</v>
+      </c>
+      <c r="I633" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F634" t="n">
+        <v>400</v>
+      </c>
+      <c r="G634" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H634" t="n">
+        <v>400</v>
+      </c>
+      <c r="I634" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F635" t="n">
+        <v>400</v>
+      </c>
+      <c r="G635" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H635" t="n">
+        <v>400</v>
+      </c>
+      <c r="I635" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F636" t="n">
+        <v>400</v>
+      </c>
+      <c r="G636" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H636" t="n">
+        <v>400</v>
+      </c>
+      <c r="I636" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>400</v>
+      </c>
+      <c r="G637" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H637" t="n">
+        <v>400</v>
+      </c>
+      <c r="I637" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I616"/>
+  <dimension ref="A1:I637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18286,7 +18286,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -20210,7 +20210,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -22504,7 +22504,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45728.23196892361</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45728.23199026621</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -23207,38 +23207,815 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F616" t="n">
+        <v>400</v>
+      </c>
+      <c r="G616" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H616" t="n">
+        <v>400</v>
+      </c>
+      <c r="I616" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F617" t="n">
+        <v>400</v>
+      </c>
+      <c r="G617" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H617" t="n">
+        <v>400</v>
+      </c>
+      <c r="I617" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F618" t="n">
+        <v>400</v>
+      </c>
+      <c r="G618" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H618" t="n">
+        <v>400</v>
+      </c>
+      <c r="I618" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>45727.23172934028</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F619" t="n">
+        <v>400</v>
+      </c>
+      <c r="G619" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H619" t="n">
+        <v>400</v>
+      </c>
+      <c r="I619" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F620" t="n">
+        <v>400</v>
+      </c>
+      <c r="G620" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H620" t="n">
+        <v>400</v>
+      </c>
+      <c r="I620" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F621" t="n">
+        <v>400</v>
+      </c>
+      <c r="G621" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H621" t="n">
+        <v>400</v>
+      </c>
+      <c r="I621" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F622" t="n">
+        <v>400</v>
+      </c>
+      <c r="G622" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H622" t="n">
+        <v>400</v>
+      </c>
+      <c r="I622" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F623" t="n">
+        <v>400</v>
+      </c>
+      <c r="G623" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H623" t="n">
+        <v>400</v>
+      </c>
+      <c r="I623" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F624" t="n">
+        <v>400</v>
+      </c>
+      <c r="G624" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H624" t="n">
+        <v>400</v>
+      </c>
+      <c r="I624" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F625" t="n">
+        <v>400</v>
+      </c>
+      <c r="G625" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H625" t="n">
+        <v>400</v>
+      </c>
+      <c r="I625" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F626" t="n">
+        <v>400</v>
+      </c>
+      <c r="G626" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H626" t="n">
+        <v>400</v>
+      </c>
+      <c r="I626" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F627" t="n">
+        <v>400</v>
+      </c>
+      <c r="G627" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H627" t="n">
+        <v>400</v>
+      </c>
+      <c r="I627" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F628" t="n">
+        <v>400</v>
+      </c>
+      <c r="G628" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H628" t="n">
+        <v>400</v>
+      </c>
+      <c r="I628" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F629" t="n">
+        <v>400</v>
+      </c>
+      <c r="G629" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H629" t="n">
+        <v>400</v>
+      </c>
+      <c r="I629" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F630" t="n">
+        <v>400</v>
+      </c>
+      <c r="G630" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H630" t="n">
+        <v>400</v>
+      </c>
+      <c r="I630" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F631" t="n">
+        <v>400</v>
+      </c>
+      <c r="G631" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H631" t="n">
+        <v>400</v>
+      </c>
+      <c r="I631" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F632" t="n">
+        <v>400</v>
+      </c>
+      <c r="G632" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H632" t="n">
+        <v>400</v>
+      </c>
+      <c r="I632" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F633" t="n">
+        <v>400</v>
+      </c>
+      <c r="G633" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H633" t="n">
+        <v>400</v>
+      </c>
+      <c r="I633" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F634" t="n">
+        <v>400</v>
+      </c>
+      <c r="G634" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H634" t="n">
+        <v>400</v>
+      </c>
+      <c r="I634" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F635" t="n">
+        <v>400</v>
+      </c>
+      <c r="G635" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H635" t="n">
+        <v>400</v>
+      </c>
+      <c r="I635" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
         <v>45728.23201340278</v>
       </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr">
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr">
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F616" t="n">
-        <v>400</v>
-      </c>
-      <c r="G616" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H616" t="n">
-        <v>400</v>
-      </c>
-      <c r="I616" t="n">
+      <c r="F636" t="n">
+        <v>400</v>
+      </c>
+      <c r="G636" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H636" t="n">
+        <v>400</v>
+      </c>
+      <c r="I636" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>400</v>
+      </c>
+      <c r="G637" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H637" t="n">
+        <v>400</v>
+      </c>
+      <c r="I637" t="n">
         <v>13</v>
       </c>
     </row>
@@ -23253,7 +24030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I630"/>
+  <dimension ref="A1:I651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41625,7 +42402,7 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -42106,7 +42883,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -42143,7 +42920,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -42587,7 +43364,7 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -42624,7 +43401,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -42661,7 +43438,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -42994,7 +43771,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -43031,7 +43808,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -43068,7 +43845,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -43105,7 +43882,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -43401,7 +44178,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -43438,7 +44215,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -43475,7 +44252,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -43512,7 +44289,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -43549,7 +44326,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -43808,7 +44585,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -43845,7 +44622,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -43882,7 +44659,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -43919,7 +44696,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -43956,7 +44733,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -43993,7 +44770,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -44141,7 +44918,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -44178,7 +44955,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -44215,7 +44992,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -44252,7 +45029,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -44289,7 +45066,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -44326,7 +45103,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -44363,7 +45140,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -44474,7 +45251,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -44511,7 +45288,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -44548,7 +45325,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -44585,7 +45362,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -44622,7 +45399,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -44659,7 +45436,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -44696,7 +45473,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -44733,7 +45510,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -44807,7 +45584,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -44844,7 +45621,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -44881,7 +45658,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -44918,7 +45695,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -44955,7 +45732,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -44992,7 +45769,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -45029,7 +45806,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -45066,7 +45843,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -45103,7 +45880,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -45140,7 +45917,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -45177,7 +45954,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -45214,7 +45991,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -45251,7 +46028,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -45288,7 +46065,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -45325,7 +46102,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -45362,7 +46139,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -45399,7 +46176,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -45436,7 +46213,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -45473,7 +46250,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -45510,7 +46287,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -45547,7 +46324,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -45584,7 +46361,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -45621,7 +46398,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -45658,7 +46435,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -45695,7 +46472,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -45732,7 +46509,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -45769,7 +46546,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -45806,7 +46583,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -45843,7 +46620,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -45880,7 +46657,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -45917,7 +46694,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -45954,7 +46731,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -45991,7 +46768,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -46028,7 +46805,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -46065,7 +46842,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -46102,7 +46879,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -46139,7 +46916,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -46176,7 +46953,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -46213,7 +46990,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -46250,7 +47027,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -46287,7 +47064,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -46324,7 +47101,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -46361,7 +47138,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -46398,7 +47175,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -46435,7 +47212,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -46472,7 +47249,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45728.07994677083</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -46486,12 +47263,12 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F628" t="n">
@@ -46501,15 +47278,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H628" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I628" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45728.07996869213</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -46523,12 +47300,12 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F629" t="n">
@@ -46538,46 +47315,823 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H629" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I629" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F630" t="n">
+        <v>400</v>
+      </c>
+      <c r="G630" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H630" t="n">
+        <v>400</v>
+      </c>
+      <c r="I630" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F631" t="n">
+        <v>400</v>
+      </c>
+      <c r="G631" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H631" t="n">
+        <v>400</v>
+      </c>
+      <c r="I631" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F632" t="n">
+        <v>400</v>
+      </c>
+      <c r="G632" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H632" t="n">
+        <v>400</v>
+      </c>
+      <c r="I632" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F633" t="n">
+        <v>400</v>
+      </c>
+      <c r="G633" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H633" t="n">
+        <v>400</v>
+      </c>
+      <c r="I633" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F634" t="n">
+        <v>400</v>
+      </c>
+      <c r="G634" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H634" t="n">
+        <v>400</v>
+      </c>
+      <c r="I634" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F635" t="n">
+        <v>400</v>
+      </c>
+      <c r="G635" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H635" t="n">
+        <v>400</v>
+      </c>
+      <c r="I635" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F636" t="n">
+        <v>400</v>
+      </c>
+      <c r="G636" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H636" t="n">
+        <v>400</v>
+      </c>
+      <c r="I636" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>400</v>
+      </c>
+      <c r="G637" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H637" t="n">
+        <v>400</v>
+      </c>
+      <c r="I637" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F638" t="n">
+        <v>400</v>
+      </c>
+      <c r="G638" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H638" t="n">
+        <v>400</v>
+      </c>
+      <c r="I638" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F639" t="n">
+        <v>400</v>
+      </c>
+      <c r="G639" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H639" t="n">
+        <v>400</v>
+      </c>
+      <c r="I639" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F640" t="n">
+        <v>400</v>
+      </c>
+      <c r="G640" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H640" t="n">
+        <v>400</v>
+      </c>
+      <c r="I640" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F641" t="n">
+        <v>400</v>
+      </c>
+      <c r="G641" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H641" t="n">
+        <v>400</v>
+      </c>
+      <c r="I641" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F642" t="n">
+        <v>400</v>
+      </c>
+      <c r="G642" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H642" t="n">
+        <v>400</v>
+      </c>
+      <c r="I642" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F643" t="n">
+        <v>400</v>
+      </c>
+      <c r="G643" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H643" t="n">
+        <v>400</v>
+      </c>
+      <c r="I643" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F644" t="n">
+        <v>400</v>
+      </c>
+      <c r="G644" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H644" t="n">
+        <v>400</v>
+      </c>
+      <c r="I644" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F645" t="n">
+        <v>400</v>
+      </c>
+      <c r="G645" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H645" t="n">
+        <v>400</v>
+      </c>
+      <c r="I645" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F646" t="n">
+        <v>400</v>
+      </c>
+      <c r="G646" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H646" t="n">
+        <v>390</v>
+      </c>
+      <c r="I646" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F647" t="n">
+        <v>400</v>
+      </c>
+      <c r="G647" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H647" t="n">
+        <v>390</v>
+      </c>
+      <c r="I647" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F648" t="n">
+        <v>400</v>
+      </c>
+      <c r="G648" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H648" t="n">
+        <v>390</v>
+      </c>
+      <c r="I648" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F649" t="n">
+        <v>400</v>
+      </c>
+      <c r="G649" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H649" t="n">
+        <v>390</v>
+      </c>
+      <c r="I649" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
         <v>45728.07999162037</v>
       </c>
-      <c r="B630" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C630" t="inlineStr">
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D630" t="inlineStr">
+      <c r="D650" t="inlineStr">
         <is>
           <t>0x01,0x86,</t>
         </is>
       </c>
-      <c r="E630" t="inlineStr">
+      <c r="E650" t="inlineStr">
         <is>
           <t>0x4</t>
         </is>
       </c>
-      <c r="F630" t="n">
-        <v>400</v>
-      </c>
-      <c r="G630" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H630" t="n">
+      <c r="F650" t="n">
+        <v>400</v>
+      </c>
+      <c r="G650" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H650" t="n">
         <v>390</v>
       </c>
-      <c r="I630" t="n">
+      <c r="I650" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F651" t="n">
+        <v>400</v>
+      </c>
+      <c r="G651" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H651" t="n">
+        <v>390</v>
+      </c>
+      <c r="I651" t="n">
         <v>4</v>
       </c>
     </row>
@@ -62642,7 +64196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I637"/>
+  <dimension ref="A1:I661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81162,7 +82716,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -81643,7 +83197,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -81680,7 +83234,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -82124,7 +83678,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -82161,7 +83715,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -82198,7 +83752,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -82531,7 +84085,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -82568,7 +84122,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -82605,7 +84159,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -82642,7 +84196,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -82938,7 +84492,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -82975,7 +84529,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -83012,7 +84566,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -83049,7 +84603,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -83086,7 +84640,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -83345,7 +84899,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -83382,7 +84936,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -83419,7 +84973,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -83456,7 +85010,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -83493,7 +85047,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -83530,7 +85084,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -83678,7 +85232,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -83715,7 +85269,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -83752,7 +85306,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -83789,7 +85343,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -83826,7 +85380,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -83863,7 +85417,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -83900,7 +85454,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -84011,7 +85565,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -84048,7 +85602,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -84085,7 +85639,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -84122,7 +85676,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -84159,7 +85713,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -84196,7 +85750,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -84233,7 +85787,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -84270,7 +85824,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -84344,7 +85898,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -84381,7 +85935,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -84418,7 +85972,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -84455,7 +86009,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -84492,7 +86046,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -84529,7 +86083,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -84566,7 +86120,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -84603,7 +86157,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -84640,7 +86194,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -84677,7 +86231,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -84714,7 +86268,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -84751,7 +86305,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -84788,7 +86342,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -84825,7 +86379,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -84862,7 +86416,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -84899,7 +86453,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -84936,7 +86490,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -84973,7 +86527,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -85010,7 +86564,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -85047,7 +86601,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -85084,7 +86638,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -85121,7 +86675,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -85158,7 +86712,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -85195,7 +86749,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -85232,7 +86786,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -85269,7 +86823,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -85306,7 +86860,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -85343,7 +86897,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -85380,7 +86934,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -85417,7 +86971,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -85454,7 +87008,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -85491,7 +87045,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -85528,7 +87082,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -85565,7 +87119,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -85602,7 +87156,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -85639,7 +87193,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -85676,7 +87230,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -85713,7 +87267,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -85750,7 +87304,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -85787,7 +87341,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -85824,7 +87378,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -85861,7 +87415,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -85898,7 +87452,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -85935,7 +87489,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -85972,7 +87526,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -86009,7 +87563,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45728.23005300926</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -86046,7 +87600,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45728.23007475695</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -86083,7 +87637,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45728.23009790509</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -86120,7 +87674,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45728.26777112269</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -86157,7 +87711,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45728.26779438657</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -86194,38 +87748,926 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
+        <v>45727.22981358796</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>400</v>
+      </c>
+      <c r="G637" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H637" t="n">
+        <v>400</v>
+      </c>
+      <c r="I637" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F638" t="n">
+        <v>400</v>
+      </c>
+      <c r="G638" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H638" t="n">
+        <v>400</v>
+      </c>
+      <c r="I638" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F639" t="n">
+        <v>400</v>
+      </c>
+      <c r="G639" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H639" t="n">
+        <v>400</v>
+      </c>
+      <c r="I639" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F640" t="n">
+        <v>400</v>
+      </c>
+      <c r="G640" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H640" t="n">
+        <v>400</v>
+      </c>
+      <c r="I640" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>45727.72991134259</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F641" t="n">
+        <v>400</v>
+      </c>
+      <c r="G641" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H641" t="n">
+        <v>400</v>
+      </c>
+      <c r="I641" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F642" t="n">
+        <v>400</v>
+      </c>
+      <c r="G642" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H642" t="n">
+        <v>400</v>
+      </c>
+      <c r="I642" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F643" t="n">
+        <v>400</v>
+      </c>
+      <c r="G643" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H643" t="n">
+        <v>400</v>
+      </c>
+      <c r="I643" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F644" t="n">
+        <v>400</v>
+      </c>
+      <c r="G644" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H644" t="n">
+        <v>400</v>
+      </c>
+      <c r="I644" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F645" t="n">
+        <v>400</v>
+      </c>
+      <c r="G645" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H645" t="n">
+        <v>400</v>
+      </c>
+      <c r="I645" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F646" t="n">
+        <v>400</v>
+      </c>
+      <c r="G646" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H646" t="n">
+        <v>400</v>
+      </c>
+      <c r="I646" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F647" t="n">
+        <v>400</v>
+      </c>
+      <c r="G647" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H647" t="n">
+        <v>400</v>
+      </c>
+      <c r="I647" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F648" t="n">
+        <v>400</v>
+      </c>
+      <c r="G648" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H648" t="n">
+        <v>400</v>
+      </c>
+      <c r="I648" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F649" t="n">
+        <v>400</v>
+      </c>
+      <c r="G649" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H649" t="n">
+        <v>400</v>
+      </c>
+      <c r="I649" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F650" t="n">
+        <v>400</v>
+      </c>
+      <c r="G650" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H650" t="n">
+        <v>400</v>
+      </c>
+      <c r="I650" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F651" t="n">
+        <v>400</v>
+      </c>
+      <c r="G651" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H651" t="n">
+        <v>400</v>
+      </c>
+      <c r="I651" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F652" t="n">
+        <v>400</v>
+      </c>
+      <c r="G652" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H652" t="n">
+        <v>400</v>
+      </c>
+      <c r="I652" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F653" t="n">
+        <v>400</v>
+      </c>
+      <c r="G653" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H653" t="n">
+        <v>400</v>
+      </c>
+      <c r="I653" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F654" t="n">
+        <v>400</v>
+      </c>
+      <c r="G654" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H654" t="n">
+        <v>400</v>
+      </c>
+      <c r="I654" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F655" t="n">
+        <v>400</v>
+      </c>
+      <c r="G655" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H655" t="n">
+        <v>400</v>
+      </c>
+      <c r="I655" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F656" t="n">
+        <v>400</v>
+      </c>
+      <c r="G656" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H656" t="n">
+        <v>400</v>
+      </c>
+      <c r="I656" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F657" t="n">
+        <v>400</v>
+      </c>
+      <c r="G657" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H657" t="n">
+        <v>400</v>
+      </c>
+      <c r="I657" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F658" t="n">
+        <v>400</v>
+      </c>
+      <c r="G658" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H658" t="n">
+        <v>400</v>
+      </c>
+      <c r="I658" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F659" t="n">
+        <v>400</v>
+      </c>
+      <c r="G659" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H659" t="n">
+        <v>400</v>
+      </c>
+      <c r="I659" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
         <v>45728.26781763889</v>
       </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C637" t="inlineStr">
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D637" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F637" t="n">
-        <v>400</v>
-      </c>
-      <c r="G637" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H637" t="n">
-        <v>400</v>
-      </c>
-      <c r="I637" t="n">
+      <c r="F660" t="n">
+        <v>400</v>
+      </c>
+      <c r="G660" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H660" t="n">
+        <v>400</v>
+      </c>
+      <c r="I660" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F661" t="n">
+        <v>400</v>
+      </c>
+      <c r="G661" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H661" t="n">
+        <v>400</v>
+      </c>
+      <c r="I661" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I637"/>
+  <dimension ref="A1:I661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18323,7 +18323,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -18841,7 +18841,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -19914,7 +19914,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -20358,7 +20358,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -21172,7 +21172,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -21283,7 +21283,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -22504,7 +22504,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45728.23196892361</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45728.23196892361</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45728.23199026621</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45728.23199026621</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45728.23201340278</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -23984,38 +23984,926 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>400</v>
+      </c>
+      <c r="G637" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H637" t="n">
+        <v>400</v>
+      </c>
+      <c r="I637" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F638" t="n">
+        <v>400</v>
+      </c>
+      <c r="G638" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H638" t="n">
+        <v>400</v>
+      </c>
+      <c r="I638" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>45727.73182605324</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F639" t="n">
+        <v>400</v>
+      </c>
+      <c r="G639" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H639" t="n">
+        <v>400</v>
+      </c>
+      <c r="I639" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F640" t="n">
+        <v>400</v>
+      </c>
+      <c r="G640" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H640" t="n">
+        <v>400</v>
+      </c>
+      <c r="I640" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F641" t="n">
+        <v>400</v>
+      </c>
+      <c r="G641" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H641" t="n">
+        <v>400</v>
+      </c>
+      <c r="I641" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F642" t="n">
+        <v>400</v>
+      </c>
+      <c r="G642" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H642" t="n">
+        <v>400</v>
+      </c>
+      <c r="I642" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F643" t="n">
+        <v>400</v>
+      </c>
+      <c r="G643" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H643" t="n">
+        <v>400</v>
+      </c>
+      <c r="I643" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F644" t="n">
+        <v>400</v>
+      </c>
+      <c r="G644" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H644" t="n">
+        <v>400</v>
+      </c>
+      <c r="I644" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F645" t="n">
+        <v>400</v>
+      </c>
+      <c r="G645" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H645" t="n">
+        <v>400</v>
+      </c>
+      <c r="I645" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F646" t="n">
+        <v>400</v>
+      </c>
+      <c r="G646" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H646" t="n">
+        <v>400</v>
+      </c>
+      <c r="I646" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F647" t="n">
+        <v>400</v>
+      </c>
+      <c r="G647" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H647" t="n">
+        <v>400</v>
+      </c>
+      <c r="I647" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F648" t="n">
+        <v>400</v>
+      </c>
+      <c r="G648" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H648" t="n">
+        <v>400</v>
+      </c>
+      <c r="I648" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F649" t="n">
+        <v>400</v>
+      </c>
+      <c r="G649" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H649" t="n">
+        <v>400</v>
+      </c>
+      <c r="I649" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F650" t="n">
+        <v>400</v>
+      </c>
+      <c r="G650" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H650" t="n">
+        <v>400</v>
+      </c>
+      <c r="I650" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F651" t="n">
+        <v>400</v>
+      </c>
+      <c r="G651" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H651" t="n">
+        <v>400</v>
+      </c>
+      <c r="I651" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F652" t="n">
+        <v>400</v>
+      </c>
+      <c r="G652" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H652" t="n">
+        <v>400</v>
+      </c>
+      <c r="I652" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F653" t="n">
+        <v>400</v>
+      </c>
+      <c r="G653" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H653" t="n">
+        <v>400</v>
+      </c>
+      <c r="I653" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F654" t="n">
+        <v>400</v>
+      </c>
+      <c r="G654" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H654" t="n">
+        <v>400</v>
+      </c>
+      <c r="I654" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F655" t="n">
+        <v>400</v>
+      </c>
+      <c r="G655" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H655" t="n">
+        <v>400</v>
+      </c>
+      <c r="I655" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
         <v>45728.23201340278</v>
       </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C637" t="inlineStr">
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D637" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F637" t="n">
-        <v>400</v>
-      </c>
-      <c r="G637" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H637" t="n">
-        <v>400</v>
-      </c>
-      <c r="I637" t="n">
+      <c r="F656" t="n">
+        <v>400</v>
+      </c>
+      <c r="G656" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H656" t="n">
+        <v>400</v>
+      </c>
+      <c r="I656" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F657" t="n">
+        <v>400</v>
+      </c>
+      <c r="G657" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H657" t="n">
+        <v>400</v>
+      </c>
+      <c r="I657" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F658" t="n">
+        <v>400</v>
+      </c>
+      <c r="G658" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H658" t="n">
+        <v>400</v>
+      </c>
+      <c r="I658" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>45728.73211121528</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F659" t="n">
+        <v>400</v>
+      </c>
+      <c r="G659" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H659" t="n">
+        <v>400</v>
+      </c>
+      <c r="I659" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>45728.73213231481</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F660" t="n">
+        <v>400</v>
+      </c>
+      <c r="G660" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H660" t="n">
+        <v>400</v>
+      </c>
+      <c r="I660" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>45728.73215575232</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F661" t="n">
+        <v>400</v>
+      </c>
+      <c r="G661" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H661" t="n">
+        <v>400</v>
+      </c>
+      <c r="I661" t="n">
         <v>13</v>
       </c>
     </row>
@@ -24030,7 +24918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I651"/>
+  <dimension ref="A1:I675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42439,7 +43327,7 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -42957,7 +43845,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -42994,7 +43882,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -43475,7 +44363,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -43512,7 +44400,7 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -43549,7 +44437,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -43919,7 +44807,7 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -43956,7 +44844,7 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -43993,7 +44881,7 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -44030,7 +44918,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -44363,7 +45251,7 @@
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -44400,7 +45288,7 @@
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -44437,7 +45325,7 @@
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -44474,7 +45362,7 @@
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -44511,7 +45399,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -44807,7 +45695,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -44844,7 +45732,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -44881,7 +45769,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -44918,7 +45806,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -44955,7 +45843,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -44992,7 +45880,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -45177,7 +46065,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -45214,7 +46102,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -45251,7 +46139,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -45288,7 +46176,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -45325,7 +46213,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -45362,7 +46250,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -45399,7 +46287,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -45547,7 +46435,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -45584,7 +46472,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -45621,7 +46509,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -45658,7 +46546,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -45695,7 +46583,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -45732,7 +46620,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -45769,7 +46657,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -45806,7 +46694,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -45917,7 +46805,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -45954,7 +46842,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -45991,7 +46879,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -46028,7 +46916,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -46065,7 +46953,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -46102,7 +46990,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -46139,7 +47027,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -46176,7 +47064,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -46213,7 +47101,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -46250,7 +47138,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -46287,7 +47175,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -46324,7 +47212,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -46361,7 +47249,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -46398,7 +47286,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -46435,7 +47323,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -46472,7 +47360,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -46509,7 +47397,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -46546,7 +47434,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -46583,7 +47471,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -46620,7 +47508,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -46657,7 +47545,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -46694,7 +47582,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -46731,7 +47619,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -46768,7 +47656,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -46805,7 +47693,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -46842,7 +47730,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -46879,7 +47767,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -46916,7 +47804,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -46953,7 +47841,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -46990,7 +47878,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -47027,7 +47915,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -47064,7 +47952,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -47101,7 +47989,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -47138,7 +48026,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -47175,7 +48063,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -47212,7 +48100,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -47249,7 +48137,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -47286,7 +48174,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -47323,7 +48211,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -47360,7 +48248,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -47397,7 +48285,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -47434,7 +48322,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -47471,7 +48359,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -47508,7 +48396,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -47545,7 +48433,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -47582,7 +48470,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -47619,7 +48507,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -47656,7 +48544,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
@@ -47693,7 +48581,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
@@ -47730,7 +48618,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
@@ -47767,7 +48655,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -47804,7 +48692,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
@@ -47841,7 +48729,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
@@ -47878,7 +48766,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -47915,7 +48803,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45728.07994677083</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
@@ -47929,12 +48817,12 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F646" t="n">
@@ -47944,15 +48832,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H646" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I646" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45728.07994677083</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -47966,12 +48854,12 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F647" t="n">
@@ -47981,15 +48869,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H647" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I647" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45728.07996869213</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
@@ -48003,12 +48891,12 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F648" t="n">
@@ -48018,15 +48906,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H648" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I648" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45728.07996869213</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
@@ -48040,12 +48928,12 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F649" t="n">
@@ -48055,15 +48943,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H649" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I649" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45728.07999162037</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
@@ -48077,12 +48965,12 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F650" t="n">
@@ -48092,46 +48980,934 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H650" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I650" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F651" t="n">
+        <v>400</v>
+      </c>
+      <c r="G651" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H651" t="n">
+        <v>400</v>
+      </c>
+      <c r="I651" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F652" t="n">
+        <v>400</v>
+      </c>
+      <c r="G652" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H652" t="n">
+        <v>400</v>
+      </c>
+      <c r="I652" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F653" t="n">
+        <v>400</v>
+      </c>
+      <c r="G653" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H653" t="n">
+        <v>400</v>
+      </c>
+      <c r="I653" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F654" t="n">
+        <v>400</v>
+      </c>
+      <c r="G654" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H654" t="n">
+        <v>400</v>
+      </c>
+      <c r="I654" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F655" t="n">
+        <v>400</v>
+      </c>
+      <c r="G655" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H655" t="n">
+        <v>400</v>
+      </c>
+      <c r="I655" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F656" t="n">
+        <v>400</v>
+      </c>
+      <c r="G656" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H656" t="n">
+        <v>400</v>
+      </c>
+      <c r="I656" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F657" t="n">
+        <v>400</v>
+      </c>
+      <c r="G657" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H657" t="n">
+        <v>400</v>
+      </c>
+      <c r="I657" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F658" t="n">
+        <v>400</v>
+      </c>
+      <c r="G658" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H658" t="n">
+        <v>400</v>
+      </c>
+      <c r="I658" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F659" t="n">
+        <v>400</v>
+      </c>
+      <c r="G659" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H659" t="n">
+        <v>400</v>
+      </c>
+      <c r="I659" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F660" t="n">
+        <v>400</v>
+      </c>
+      <c r="G660" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H660" t="n">
+        <v>400</v>
+      </c>
+      <c r="I660" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F661" t="n">
+        <v>400</v>
+      </c>
+      <c r="G661" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H661" t="n">
+        <v>400</v>
+      </c>
+      <c r="I661" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F662" t="n">
+        <v>400</v>
+      </c>
+      <c r="G662" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H662" t="n">
+        <v>400</v>
+      </c>
+      <c r="I662" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F663" t="n">
+        <v>400</v>
+      </c>
+      <c r="G663" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H663" t="n">
+        <v>400</v>
+      </c>
+      <c r="I663" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F664" t="n">
+        <v>400</v>
+      </c>
+      <c r="G664" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H664" t="n">
+        <v>390</v>
+      </c>
+      <c r="I664" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F665" t="n">
+        <v>400</v>
+      </c>
+      <c r="G665" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H665" t="n">
+        <v>390</v>
+      </c>
+      <c r="I665" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F666" t="n">
+        <v>400</v>
+      </c>
+      <c r="G666" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H666" t="n">
+        <v>390</v>
+      </c>
+      <c r="I666" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F667" t="n">
+        <v>400</v>
+      </c>
+      <c r="G667" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H667" t="n">
+        <v>390</v>
+      </c>
+      <c r="I667" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F668" t="n">
+        <v>400</v>
+      </c>
+      <c r="G668" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H668" t="n">
+        <v>390</v>
+      </c>
+      <c r="I668" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F669" t="n">
+        <v>400</v>
+      </c>
+      <c r="G669" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H669" t="n">
+        <v>390</v>
+      </c>
+      <c r="I669" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
         <v>45728.07999162037</v>
       </c>
-      <c r="B651" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C651" t="inlineStr">
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D651" t="inlineStr">
+      <c r="D670" t="inlineStr">
         <is>
           <t>0x01,0x86,</t>
         </is>
       </c>
-      <c r="E651" t="inlineStr">
+      <c r="E670" t="inlineStr">
         <is>
           <t>0x4</t>
         </is>
       </c>
-      <c r="F651" t="n">
-        <v>400</v>
-      </c>
-      <c r="G651" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H651" t="n">
+      <c r="F670" t="n">
+        <v>400</v>
+      </c>
+      <c r="G670" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H670" t="n">
         <v>390</v>
       </c>
-      <c r="I651" t="n">
+      <c r="I670" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F671" t="n">
+        <v>400</v>
+      </c>
+      <c r="G671" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H671" t="n">
+        <v>390</v>
+      </c>
+      <c r="I671" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F672" t="n">
+        <v>400</v>
+      </c>
+      <c r="G672" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H672" t="n">
+        <v>390</v>
+      </c>
+      <c r="I672" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>45728.58008952547</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F673" t="n">
+        <v>400</v>
+      </c>
+      <c r="G673" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H673" t="n">
+        <v>390</v>
+      </c>
+      <c r="I673" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>45728.5801115625</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F674" t="n">
+        <v>400</v>
+      </c>
+      <c r="G674" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H674" t="n">
+        <v>390</v>
+      </c>
+      <c r="I674" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>45728.58013472222</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F675" t="n">
+        <v>400</v>
+      </c>
+      <c r="G675" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H675" t="n">
+        <v>390</v>
+      </c>
+      <c r="I675" t="n">
         <v>4</v>
       </c>
     </row>
@@ -64196,7 +65972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I661"/>
+  <dimension ref="A1:I688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82753,7 +84529,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -83271,7 +85047,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -83308,7 +85084,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -83789,7 +85565,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -83826,7 +85602,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -83863,7 +85639,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -84233,7 +86009,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -84270,7 +86046,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -84307,7 +86083,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -84344,7 +86120,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -84677,7 +86453,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -84714,7 +86490,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -84751,7 +86527,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -84788,7 +86564,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -84825,7 +86601,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -85121,7 +86897,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -85158,7 +86934,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -85195,7 +86971,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -85232,7 +87008,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -85269,7 +87045,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -85306,7 +87082,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -85491,7 +87267,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -85528,7 +87304,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -85565,7 +87341,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -85602,7 +87378,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -85639,7 +87415,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -85676,7 +87452,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -85713,7 +87489,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -85861,7 +87637,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -85898,7 +87674,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -85935,7 +87711,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -85972,7 +87748,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -86009,7 +87785,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -86046,7 +87822,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -86083,7 +87859,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -86120,7 +87896,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -86231,7 +88007,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -86268,7 +88044,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -86305,7 +88081,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -86342,7 +88118,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -86379,7 +88155,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -86416,7 +88192,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -86453,7 +88229,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -86490,7 +88266,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -86527,7 +88303,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -86564,7 +88340,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -86601,7 +88377,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -86638,7 +88414,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -86675,7 +88451,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -86712,7 +88488,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -86749,7 +88525,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -86786,7 +88562,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -86823,7 +88599,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -86860,7 +88636,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -86897,7 +88673,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -86934,7 +88710,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -86971,7 +88747,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -87008,7 +88784,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -87045,7 +88821,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -87082,7 +88858,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -87119,7 +88895,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -87156,7 +88932,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -87193,7 +88969,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -87230,7 +89006,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -87267,7 +89043,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -87304,7 +89080,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -87341,7 +89117,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -87378,7 +89154,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -87415,7 +89191,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -87452,7 +89228,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -87489,7 +89265,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -87526,7 +89302,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -87563,7 +89339,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -87600,7 +89376,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -87637,7 +89413,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -87674,7 +89450,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -87711,7 +89487,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -87748,7 +89524,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -87785,7 +89561,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -87822,7 +89598,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
@@ -87859,7 +89635,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
@@ -87896,7 +89672,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
@@ -87933,7 +89709,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -87970,7 +89746,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
@@ -88007,7 +89783,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
@@ -88044,7 +89820,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -88081,7 +89857,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
@@ -88118,7 +89894,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -88155,7 +89931,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
@@ -88192,7 +89968,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
@@ -88229,7 +90005,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45728.23005300926</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
@@ -88266,7 +90042,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45728.23005300926</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
@@ -88303,7 +90079,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45728.23007475695</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
@@ -88340,7 +90116,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45728.23007475695</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
@@ -88377,7 +90153,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45728.23009790509</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
@@ -88414,7 +90190,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45728.23009790509</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
@@ -88451,7 +90227,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45728.26777112269</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
@@ -88488,7 +90264,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45728.26777112269</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
@@ -88525,7 +90301,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45728.26779438657</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
@@ -88562,7 +90338,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45728.26779438657</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
@@ -88599,7 +90375,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45728.26781763889</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
@@ -88636,38 +90412,1037 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F661" t="n">
+        <v>400</v>
+      </c>
+      <c r="G661" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H661" t="n">
+        <v>400</v>
+      </c>
+      <c r="I661" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>45727.72993271991</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F662" t="n">
+        <v>400</v>
+      </c>
+      <c r="G662" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H662" t="n">
+        <v>400</v>
+      </c>
+      <c r="I662" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F663" t="n">
+        <v>400</v>
+      </c>
+      <c r="G663" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H663" t="n">
+        <v>400</v>
+      </c>
+      <c r="I663" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F664" t="n">
+        <v>400</v>
+      </c>
+      <c r="G664" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H664" t="n">
+        <v>400</v>
+      </c>
+      <c r="I664" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F665" t="n">
+        <v>400</v>
+      </c>
+      <c r="G665" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H665" t="n">
+        <v>400</v>
+      </c>
+      <c r="I665" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F666" t="n">
+        <v>400</v>
+      </c>
+      <c r="G666" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H666" t="n">
+        <v>400</v>
+      </c>
+      <c r="I666" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45727.72995586805</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F667" t="n">
+        <v>400</v>
+      </c>
+      <c r="G667" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H667" t="n">
+        <v>400</v>
+      </c>
+      <c r="I667" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F668" t="n">
+        <v>400</v>
+      </c>
+      <c r="G668" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H668" t="n">
+        <v>400</v>
+      </c>
+      <c r="I668" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F669" t="n">
+        <v>400</v>
+      </c>
+      <c r="G669" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H669" t="n">
+        <v>400</v>
+      </c>
+      <c r="I669" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F670" t="n">
+        <v>400</v>
+      </c>
+      <c r="G670" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H670" t="n">
+        <v>400</v>
+      </c>
+      <c r="I670" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F671" t="n">
+        <v>400</v>
+      </c>
+      <c r="G671" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H671" t="n">
+        <v>400</v>
+      </c>
+      <c r="I671" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F672" t="n">
+        <v>400</v>
+      </c>
+      <c r="G672" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H672" t="n">
+        <v>400</v>
+      </c>
+      <c r="I672" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F673" t="n">
+        <v>400</v>
+      </c>
+      <c r="G673" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H673" t="n">
+        <v>400</v>
+      </c>
+      <c r="I673" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F674" t="n">
+        <v>400</v>
+      </c>
+      <c r="G674" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H674" t="n">
+        <v>400</v>
+      </c>
+      <c r="I674" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F675" t="n">
+        <v>400</v>
+      </c>
+      <c r="G675" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H675" t="n">
+        <v>400</v>
+      </c>
+      <c r="I675" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F676" t="n">
+        <v>400</v>
+      </c>
+      <c r="G676" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H676" t="n">
+        <v>400</v>
+      </c>
+      <c r="I676" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F677" t="n">
+        <v>400</v>
+      </c>
+      <c r="G677" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H677" t="n">
+        <v>400</v>
+      </c>
+      <c r="I677" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F678" t="n">
+        <v>400</v>
+      </c>
+      <c r="G678" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H678" t="n">
+        <v>400</v>
+      </c>
+      <c r="I678" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F679" t="n">
+        <v>400</v>
+      </c>
+      <c r="G679" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H679" t="n">
+        <v>400</v>
+      </c>
+      <c r="I679" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F680" t="n">
+        <v>400</v>
+      </c>
+      <c r="G680" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H680" t="n">
+        <v>400</v>
+      </c>
+      <c r="I680" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F681" t="n">
+        <v>400</v>
+      </c>
+      <c r="G681" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H681" t="n">
+        <v>400</v>
+      </c>
+      <c r="I681" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F682" t="n">
+        <v>400</v>
+      </c>
+      <c r="G682" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H682" t="n">
+        <v>400</v>
+      </c>
+      <c r="I682" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
         <v>45728.26781763889</v>
       </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr">
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D661" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E661" t="inlineStr">
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F661" t="n">
-        <v>400</v>
-      </c>
-      <c r="G661" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H661" t="n">
-        <v>400</v>
-      </c>
-      <c r="I661" t="n">
+      <c r="F683" t="n">
+        <v>400</v>
+      </c>
+      <c r="G683" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H683" t="n">
+        <v>400</v>
+      </c>
+      <c r="I683" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F684" t="n">
+        <v>400</v>
+      </c>
+      <c r="G684" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H684" t="n">
+        <v>400</v>
+      </c>
+      <c r="I684" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F685" t="n">
+        <v>400</v>
+      </c>
+      <c r="G685" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H685" t="n">
+        <v>400</v>
+      </c>
+      <c r="I685" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>45728.76791525463</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F686" t="n">
+        <v>400</v>
+      </c>
+      <c r="G686" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H686" t="n">
+        <v>400</v>
+      </c>
+      <c r="I686" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>45728.76793732639</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F687" t="n">
+        <v>400</v>
+      </c>
+      <c r="G687" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H687" t="n">
+        <v>400</v>
+      </c>
+      <c r="I687" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>45728.76796047454</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F688" t="n">
+        <v>400</v>
+      </c>
+      <c r="G688" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H688" t="n">
+        <v>400</v>
+      </c>
+      <c r="I688" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I661"/>
+  <dimension ref="A1:I685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18360,7 +18360,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45725.23113506944</v>
+        <v>45725.23111297454</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45725.23115855324</v>
+        <v>45725.23113506944</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -19507,7 +19507,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>45725.73125641204</v>
+        <v>45725.23115855324</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.73127832176</v>
+        <v>45725.73125641204</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -20543,7 +20543,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45725.73130123843</v>
+        <v>45725.73127832176</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -20950,7 +20950,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45726.23139893518</v>
+        <v>45725.73130123843</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -21320,7 +21320,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -21468,7 +21468,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.23142038195</v>
+        <v>45726.23139893518</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -21801,7 +21801,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -21912,7 +21912,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.23144357639</v>
+        <v>45726.23142038195</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -22282,7 +22282,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.73154126157</v>
+        <v>45726.23144357639</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -22504,7 +22504,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -22652,7 +22652,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45726.73156329861</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73154126157</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45726.73158645834</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -23133,7 +23133,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73156329861</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -23281,7 +23281,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45727.23168409722</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -23466,7 +23466,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45726.73158645834</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45727.23170618056</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -23762,7 +23762,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23168409722</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -23873,7 +23873,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45727.23172934028</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -23984,7 +23984,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -24058,7 +24058,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45727.73182605324</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23170618056</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
@@ -24243,7 +24243,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45727.73184822917</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45727.73187150463</v>
+        <v>45727.23172934028</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
@@ -24465,7 +24465,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45728.23196892361</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
@@ -24502,7 +24502,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45728.23196892361</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
@@ -24539,7 +24539,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45728.23196892361</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45728.23199026621</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45728.23199026621</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
@@ -24650,7 +24650,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45728.23199026621</v>
+        <v>45727.73182605324</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45728.23201340278</v>
+        <v>45727.73184822917</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45728.23201340278</v>
+        <v>45727.73184822917</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
@@ -24761,7 +24761,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45728.23201340278</v>
+        <v>45727.73184822917</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45728.73211121528</v>
+        <v>45727.73184822917</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45728.73213231481</v>
+        <v>45727.73184822917</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
@@ -24872,38 +24872,926 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
+        <v>45727.73184822917</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F661" t="n">
+        <v>400</v>
+      </c>
+      <c r="G661" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H661" t="n">
+        <v>400</v>
+      </c>
+      <c r="I661" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F662" t="n">
+        <v>400</v>
+      </c>
+      <c r="G662" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H662" t="n">
+        <v>400</v>
+      </c>
+      <c r="I662" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F663" t="n">
+        <v>400</v>
+      </c>
+      <c r="G663" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H663" t="n">
+        <v>400</v>
+      </c>
+      <c r="I663" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F664" t="n">
+        <v>400</v>
+      </c>
+      <c r="G664" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H664" t="n">
+        <v>400</v>
+      </c>
+      <c r="I664" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F665" t="n">
+        <v>400</v>
+      </c>
+      <c r="G665" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H665" t="n">
+        <v>400</v>
+      </c>
+      <c r="I665" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F666" t="n">
+        <v>400</v>
+      </c>
+      <c r="G666" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H666" t="n">
+        <v>400</v>
+      </c>
+      <c r="I666" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45727.73187150463</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F667" t="n">
+        <v>400</v>
+      </c>
+      <c r="G667" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H667" t="n">
+        <v>400</v>
+      </c>
+      <c r="I667" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F668" t="n">
+        <v>400</v>
+      </c>
+      <c r="G668" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H668" t="n">
+        <v>400</v>
+      </c>
+      <c r="I668" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F669" t="n">
+        <v>400</v>
+      </c>
+      <c r="G669" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H669" t="n">
+        <v>400</v>
+      </c>
+      <c r="I669" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F670" t="n">
+        <v>400</v>
+      </c>
+      <c r="G670" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H670" t="n">
+        <v>400</v>
+      </c>
+      <c r="I670" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>45728.23196892361</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F671" t="n">
+        <v>400</v>
+      </c>
+      <c r="G671" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H671" t="n">
+        <v>400</v>
+      </c>
+      <c r="I671" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F672" t="n">
+        <v>400</v>
+      </c>
+      <c r="G672" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H672" t="n">
+        <v>400</v>
+      </c>
+      <c r="I672" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F673" t="n">
+        <v>400</v>
+      </c>
+      <c r="G673" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H673" t="n">
+        <v>400</v>
+      </c>
+      <c r="I673" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F674" t="n">
+        <v>400</v>
+      </c>
+      <c r="G674" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H674" t="n">
+        <v>400</v>
+      </c>
+      <c r="I674" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>45728.23199026621</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F675" t="n">
+        <v>400</v>
+      </c>
+      <c r="G675" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H675" t="n">
+        <v>400</v>
+      </c>
+      <c r="I675" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F676" t="n">
+        <v>400</v>
+      </c>
+      <c r="G676" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H676" t="n">
+        <v>400</v>
+      </c>
+      <c r="I676" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F677" t="n">
+        <v>400</v>
+      </c>
+      <c r="G677" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H677" t="n">
+        <v>400</v>
+      </c>
+      <c r="I677" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F678" t="n">
+        <v>400</v>
+      </c>
+      <c r="G678" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H678" t="n">
+        <v>400</v>
+      </c>
+      <c r="I678" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>45728.23201340278</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F679" t="n">
+        <v>400</v>
+      </c>
+      <c r="G679" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H679" t="n">
+        <v>400</v>
+      </c>
+      <c r="I679" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>45728.73211121528</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F680" t="n">
+        <v>400</v>
+      </c>
+      <c r="G680" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H680" t="n">
+        <v>400</v>
+      </c>
+      <c r="I680" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>45728.73211121528</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F681" t="n">
+        <v>400</v>
+      </c>
+      <c r="G681" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H681" t="n">
+        <v>400</v>
+      </c>
+      <c r="I681" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>45728.73213231481</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F682" t="n">
+        <v>400</v>
+      </c>
+      <c r="G682" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H682" t="n">
+        <v>400</v>
+      </c>
+      <c r="I682" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>45728.73213231481</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F683" t="n">
+        <v>400</v>
+      </c>
+      <c r="G683" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H683" t="n">
+        <v>400</v>
+      </c>
+      <c r="I683" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
         <v>45728.73215575232</v>
       </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr">
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D661" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E661" t="inlineStr">
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
         <is>
           <t>0xd</t>
         </is>
       </c>
-      <c r="F661" t="n">
-        <v>400</v>
-      </c>
-      <c r="G661" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H661" t="n">
-        <v>400</v>
-      </c>
-      <c r="I661" t="n">
+      <c r="F684" t="n">
+        <v>400</v>
+      </c>
+      <c r="G684" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H684" t="n">
+        <v>400</v>
+      </c>
+      <c r="I684" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>45728.73215575232</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F685" t="n">
+        <v>400</v>
+      </c>
+      <c r="G685" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H685" t="n">
+        <v>400</v>
+      </c>
+      <c r="I685" t="n">
         <v>13</v>
       </c>
     </row>
@@ -24918,7 +25806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I675"/>
+  <dimension ref="A1:I699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43364,7 +44252,7 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45725.07911518519</v>
+        <v>45725.07909302083</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -43919,7 +44807,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -43956,7 +44844,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>45725.07913833333</v>
+        <v>45725.07911518519</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -44474,7 +45362,7 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -44511,7 +45399,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -44548,7 +45436,7 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
-        <v>45725.57923533564</v>
+        <v>45725.07913833333</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -44955,7 +45843,7 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -44992,7 +45880,7 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -45029,7 +45917,7 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -45066,7 +45954,7 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45725.57925716435</v>
+        <v>45725.57923533564</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -45436,7 +46324,7 @@
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -45473,7 +46361,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -45510,7 +46398,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -45547,7 +46435,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -45584,7 +46472,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45725.57928042824</v>
+        <v>45725.57925716435</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -45917,7 +46805,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -45954,7 +46842,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -45991,7 +46879,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -46028,7 +46916,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -46065,7 +46953,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -46102,7 +46990,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.07937777778</v>
+        <v>45725.57928042824</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -46324,7 +47212,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -46361,7 +47249,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -46398,7 +47286,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -46435,7 +47323,7 @@
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -46472,7 +47360,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -46509,7 +47397,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -46546,7 +47434,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.07939922454</v>
+        <v>45726.07937777778</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -46731,7 +47619,7 @@
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -46768,7 +47656,7 @@
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -46805,7 +47693,7 @@
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -46842,7 +47730,7 @@
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -46879,7 +47767,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -46916,7 +47804,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -46953,7 +47841,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -46990,7 +47878,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.07942256945</v>
+        <v>45726.07939922454</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -47138,7 +48026,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -47175,7 +48063,7 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -47212,7 +48100,7 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -47249,7 +48137,7 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -47286,7 +48174,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -47323,7 +48211,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -47360,7 +48248,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -47397,7 +48285,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -47434,7 +48322,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45726.57952</v>
+        <v>45726.07942256945</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -47471,7 +48359,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -47508,7 +48396,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -47545,7 +48433,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -47582,7 +48470,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -47619,7 +48507,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -47656,7 +48544,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -47693,7 +48581,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -47730,7 +48618,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -47767,7 +48655,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45726.57954204861</v>
+        <v>45726.57952</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -47804,7 +48692,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57952</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -47841,7 +48729,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -47878,7 +48766,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -47915,7 +48803,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -47952,7 +48840,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -47989,7 +48877,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -48026,7 +48914,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -48063,7 +48951,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -48100,7 +48988,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45726.57956549768</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -48137,7 +49025,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -48174,7 +49062,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57954204861</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -48211,7 +49099,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -48248,7 +49136,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -48285,7 +49173,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -48322,7 +49210,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -48359,7 +49247,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45727.07966211806</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -48396,7 +49284,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -48433,7 +49321,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -48470,7 +49358,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -48507,7 +49395,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -48544,7 +49432,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45726.57956549768</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
@@ -48581,7 +49469,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
@@ -48618,7 +49506,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45727.07968420139</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
@@ -48655,7 +49543,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -48692,7 +49580,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
@@ -48729,7 +49617,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
@@ -48766,7 +49654,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -48803,7 +49691,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
@@ -48840,7 +49728,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07966211806</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -48877,7 +49765,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45727.07970724537</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
@@ -48914,7 +49802,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
@@ -48951,7 +49839,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
@@ -48988,7 +49876,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
@@ -49025,7 +49913,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
@@ -49062,7 +49950,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45727.57980457176</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
@@ -49099,7 +49987,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
@@ -49136,7 +50024,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07968420139</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
@@ -49173,7 +50061,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
@@ -49210,7 +50098,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
@@ -49247,7 +50135,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45727.57982650463</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
@@ -49284,7 +50172,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
@@ -49321,7 +50209,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
@@ -49358,7 +50246,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
@@ -49395,7 +50283,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
@@ -49432,7 +50320,7 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>45727.57985059028</v>
+        <v>45727.07970724537</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
@@ -49469,7 +50357,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>45728.07994677083</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
@@ -49483,12 +50371,12 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F664" t="n">
@@ -49498,15 +50386,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H664" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I664" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>45728.07994677083</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
@@ -49520,12 +50408,12 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F665" t="n">
@@ -49535,15 +50423,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H665" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I665" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>45728.07994677083</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
@@ -49557,12 +50445,12 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F666" t="n">
@@ -49572,15 +50460,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H666" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I666" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>45728.07996869213</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
@@ -49594,12 +50482,12 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F667" t="n">
@@ -49609,15 +50497,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H667" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I667" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>45728.07996869213</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
@@ -49631,12 +50519,12 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F668" t="n">
@@ -49646,15 +50534,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H668" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I668" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>45728.07996869213</v>
+        <v>45727.57980457176</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
@@ -49668,12 +50556,12 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F669" t="n">
@@ -49683,15 +50571,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H669" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I669" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>45728.07999162037</v>
+        <v>45727.57982650463</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
@@ -49705,12 +50593,12 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F670" t="n">
@@ -49720,15 +50608,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H670" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I670" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>45728.07999162037</v>
+        <v>45727.57982650463</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
@@ -49742,12 +50630,12 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F671" t="n">
@@ -49757,15 +50645,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H671" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I671" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>45728.07999162037</v>
+        <v>45727.57982650463</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
@@ -49779,12 +50667,12 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F672" t="n">
@@ -49794,15 +50682,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H672" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I672" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>45728.58008952547</v>
+        <v>45727.57982650463</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
@@ -49816,12 +50704,12 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F673" t="n">
@@ -49831,15 +50719,15 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H673" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I673" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>45728.5801115625</v>
+        <v>45727.57982650463</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
@@ -49853,12 +50741,12 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>0x01,0x86,</t>
+          <t>0x01,0x90,</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>0x4</t>
+          <t>0xe</t>
         </is>
       </c>
       <c r="F674" t="n">
@@ -49868,46 +50756,934 @@
         <v>5.686312626471138e+23</v>
       </c>
       <c r="H674" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="I674" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F675" t="n">
+        <v>400</v>
+      </c>
+      <c r="G675" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H675" t="n">
+        <v>400</v>
+      </c>
+      <c r="I675" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F676" t="n">
+        <v>400</v>
+      </c>
+      <c r="G676" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H676" t="n">
+        <v>400</v>
+      </c>
+      <c r="I676" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F677" t="n">
+        <v>400</v>
+      </c>
+      <c r="G677" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H677" t="n">
+        <v>400</v>
+      </c>
+      <c r="I677" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F678" t="n">
+        <v>400</v>
+      </c>
+      <c r="G678" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H678" t="n">
+        <v>400</v>
+      </c>
+      <c r="I678" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F679" t="n">
+        <v>400</v>
+      </c>
+      <c r="G679" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H679" t="n">
+        <v>400</v>
+      </c>
+      <c r="I679" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F680" t="n">
+        <v>400</v>
+      </c>
+      <c r="G680" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H680" t="n">
+        <v>400</v>
+      </c>
+      <c r="I680" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F681" t="n">
+        <v>400</v>
+      </c>
+      <c r="G681" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H681" t="n">
+        <v>400</v>
+      </c>
+      <c r="I681" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F682" t="n">
+        <v>400</v>
+      </c>
+      <c r="G682" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H682" t="n">
+        <v>390</v>
+      </c>
+      <c r="I682" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F683" t="n">
+        <v>400</v>
+      </c>
+      <c r="G683" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H683" t="n">
+        <v>390</v>
+      </c>
+      <c r="I683" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F684" t="n">
+        <v>400</v>
+      </c>
+      <c r="G684" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H684" t="n">
+        <v>390</v>
+      </c>
+      <c r="I684" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F685" t="n">
+        <v>400</v>
+      </c>
+      <c r="G685" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H685" t="n">
+        <v>390</v>
+      </c>
+      <c r="I685" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F686" t="n">
+        <v>400</v>
+      </c>
+      <c r="G686" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H686" t="n">
+        <v>390</v>
+      </c>
+      <c r="I686" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F687" t="n">
+        <v>400</v>
+      </c>
+      <c r="G687" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H687" t="n">
+        <v>390</v>
+      </c>
+      <c r="I687" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F688" t="n">
+        <v>400</v>
+      </c>
+      <c r="G688" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H688" t="n">
+        <v>390</v>
+      </c>
+      <c r="I688" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F689" t="n">
+        <v>400</v>
+      </c>
+      <c r="G689" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H689" t="n">
+        <v>390</v>
+      </c>
+      <c r="I689" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F690" t="n">
+        <v>400</v>
+      </c>
+      <c r="G690" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H690" t="n">
+        <v>390</v>
+      </c>
+      <c r="I690" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F691" t="n">
+        <v>400</v>
+      </c>
+      <c r="G691" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H691" t="n">
+        <v>390</v>
+      </c>
+      <c r="I691" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F692" t="n">
+        <v>400</v>
+      </c>
+      <c r="G692" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H692" t="n">
+        <v>390</v>
+      </c>
+      <c r="I692" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F693" t="n">
+        <v>400</v>
+      </c>
+      <c r="G693" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H693" t="n">
+        <v>390</v>
+      </c>
+      <c r="I693" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>45728.58008952547</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F694" t="n">
+        <v>400</v>
+      </c>
+      <c r="G694" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H694" t="n">
+        <v>390</v>
+      </c>
+      <c r="I694" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>45728.58008952547</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F695" t="n">
+        <v>400</v>
+      </c>
+      <c r="G695" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H695" t="n">
+        <v>390</v>
+      </c>
+      <c r="I695" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>45728.5801115625</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F696" t="n">
+        <v>400</v>
+      </c>
+      <c r="G696" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H696" t="n">
+        <v>390</v>
+      </c>
+      <c r="I696" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>45728.5801115625</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F697" t="n">
+        <v>400</v>
+      </c>
+      <c r="G697" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H697" t="n">
+        <v>390</v>
+      </c>
+      <c r="I697" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
         <v>45728.58013472222</v>
       </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr">
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
         </is>
       </c>
-      <c r="D675" t="inlineStr">
+      <c r="D698" t="inlineStr">
         <is>
           <t>0x01,0x86,</t>
         </is>
       </c>
-      <c r="E675" t="inlineStr">
+      <c r="E698" t="inlineStr">
         <is>
           <t>0x4</t>
         </is>
       </c>
-      <c r="F675" t="n">
-        <v>400</v>
-      </c>
-      <c r="G675" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H675" t="n">
+      <c r="F698" t="n">
+        <v>400</v>
+      </c>
+      <c r="G698" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H698" t="n">
         <v>390</v>
       </c>
-      <c r="I675" t="n">
+      <c r="I698" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>45728.58013472222</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F699" t="n">
+        <v>400</v>
+      </c>
+      <c r="G699" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H699" t="n">
+        <v>390</v>
+      </c>
+      <c r="I699" t="n">
         <v>4</v>
       </c>
     </row>
@@ -65972,7 +67748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I688"/>
+  <dimension ref="A1:I715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84566,7 +86342,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>45725.22922125</v>
+        <v>45725.22919952546</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -85121,7 +86897,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -85158,7 +86934,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
-        <v>45725.22924497685</v>
+        <v>45725.22922125</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -85676,7 +87452,7 @@
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -85713,7 +87489,7 @@
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -85750,7 +87526,7 @@
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
-        <v>45725.7293421412</v>
+        <v>45725.22924497685</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -86157,7 +87933,7 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -86194,7 +87970,7 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -86231,7 +88007,7 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -86268,7 +88044,7 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
-        <v>45725.72936453704</v>
+        <v>45725.7293421412</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -86638,7 +88414,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -86675,7 +88451,7 @@
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -86712,7 +88488,7 @@
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -86749,7 +88525,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -86786,7 +88562,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
-        <v>45725.7293875</v>
+        <v>45725.72936453704</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -87119,7 +88895,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -87156,7 +88932,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -87193,7 +88969,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -87230,7 +89006,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -87267,7 +89043,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -87304,7 +89080,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
-        <v>45726.2294844213</v>
+        <v>45725.7293875</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -87526,7 +89302,7 @@
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -87563,7 +89339,7 @@
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -87600,7 +89376,7 @@
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -87637,7 +89413,7 @@
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -87674,7 +89450,7 @@
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -87711,7 +89487,7 @@
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -87748,7 +89524,7 @@
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
-        <v>45726.22950657408</v>
+        <v>45726.2294844213</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -87933,7 +89709,7 @@
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -87970,7 +89746,7 @@
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -88007,7 +89783,7 @@
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -88044,7 +89820,7 @@
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -88081,7 +89857,7 @@
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -88118,7 +89894,7 @@
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -88155,7 +89931,7 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -88192,7 +89968,7 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
-        <v>45726.22953034722</v>
+        <v>45726.22950657408</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -88340,7 +90116,7 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -88377,7 +90153,7 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -88414,7 +90190,7 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -88451,7 +90227,7 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -88488,7 +90264,7 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -88525,7 +90301,7 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -88562,7 +90338,7 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -88599,7 +90375,7 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -88636,7 +90412,7 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
-        <v>45726.72962616898</v>
+        <v>45726.22953034722</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -88673,7 +90449,7 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -88710,7 +90486,7 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -88747,7 +90523,7 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -88784,7 +90560,7 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -88821,7 +90597,7 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -88858,7 +90634,7 @@
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -88895,7 +90671,7 @@
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -88932,7 +90708,7 @@
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -88969,7 +90745,7 @@
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
-        <v>45726.72964848379</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -89006,7 +90782,7 @@
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72962616898</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -89043,7 +90819,7 @@
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -89080,7 +90856,7 @@
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -89117,7 +90893,7 @@
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -89154,7 +90930,7 @@
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -89191,7 +90967,7 @@
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -89228,7 +91004,7 @@
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -89265,7 +91041,7 @@
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -89302,7 +91078,7 @@
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
-        <v>45726.72967174769</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -89339,7 +91115,7 @@
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -89376,7 +91152,7 @@
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72964848379</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -89413,7 +91189,7 @@
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -89450,7 +91226,7 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -89487,7 +91263,7 @@
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -89524,7 +91300,7 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -89561,7 +91337,7 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45727.22976834491</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -89598,7 +91374,7 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
@@ -89635,7 +91411,7 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
@@ -89672,7 +91448,7 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
@@ -89709,7 +91485,7 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -89746,7 +91522,7 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45726.72967174769</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
@@ -89783,7 +91559,7 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
@@ -89820,7 +91596,7 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
-        <v>45727.22979072916</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -89857,7 +91633,7 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
@@ -89894,7 +91670,7 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -89931,7 +91707,7 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
@@ -89968,7 +91744,7 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
@@ -90005,7 +91781,7 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
@@ -90042,7 +91818,7 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22976834491</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
@@ -90079,7 +91855,7 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
-        <v>45727.22981358796</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
@@ -90116,7 +91892,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
@@ -90153,7 +91929,7 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
@@ -90190,7 +91966,7 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
@@ -90227,7 +92003,7 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
@@ -90264,7 +92040,7 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
-        <v>45727.72991134259</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
@@ -90301,7 +92077,7 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
@@ -90338,7 +92114,7 @@
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22979072916</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
@@ -90375,7 +92151,7 @@
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
@@ -90412,7 +92188,7 @@
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
@@ -90449,7 +92225,7 @@
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
-        <v>45727.72993271991</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
@@ -90486,7 +92262,7 @@
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
@@ -90523,7 +92299,7 @@
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
@@ -90560,7 +92336,7 @@
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
@@ -90597,7 +92373,7 @@
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
@@ -90634,7 +92410,7 @@
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
-        <v>45727.72995586805</v>
+        <v>45727.22981358796</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
@@ -90671,7 +92447,7 @@
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
-        <v>45728.23005300926</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
@@ -90708,7 +92484,7 @@
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
-        <v>45728.23005300926</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
@@ -90745,7 +92521,7 @@
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
-        <v>45728.23005300926</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
@@ -90782,7 +92558,7 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>45728.23007475695</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
@@ -90819,7 +92595,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
-        <v>45728.23007475695</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
@@ -90856,7 +92632,7 @@
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
-        <v>45728.23007475695</v>
+        <v>45727.72991134259</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
@@ -90893,7 +92669,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
-        <v>45728.23009790509</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
@@ -90930,7 +92706,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
-        <v>45728.23009790509</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
@@ -90967,7 +92743,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
-        <v>45728.23009790509</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
@@ -91004,7 +92780,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
-        <v>45728.26777112269</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
@@ -91041,7 +92817,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
-        <v>45728.26777112269</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
@@ -91078,7 +92854,7 @@
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
-        <v>45728.26777112269</v>
+        <v>45727.72993271991</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
@@ -91115,7 +92891,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
-        <v>45728.26779438657</v>
+        <v>45727.72995586805</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
@@ -91152,7 +92928,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
-        <v>45728.26779438657</v>
+        <v>45727.72995586805</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
@@ -91189,7 +92965,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
-        <v>45728.26779438657</v>
+        <v>45727.72995586805</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
@@ -91226,7 +93002,7 @@
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
-        <v>45728.26781763889</v>
+        <v>45727.72995586805</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
@@ -91263,7 +93039,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
-        <v>45728.26781763889</v>
+        <v>45727.72995586805</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
@@ -91300,7 +93076,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
-        <v>45728.26781763889</v>
+        <v>45727.72995586805</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
@@ -91337,7 +93113,7 @@
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
-        <v>45728.76791525463</v>
+        <v>45728.23005300926</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
@@ -91374,7 +93150,7 @@
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
-        <v>45728.76793732639</v>
+        <v>45728.23005300926</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
@@ -91411,38 +93187,1037 @@
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F688" t="n">
+        <v>400</v>
+      </c>
+      <c r="G688" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H688" t="n">
+        <v>400</v>
+      </c>
+      <c r="I688" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>45728.23005300926</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F689" t="n">
+        <v>400</v>
+      </c>
+      <c r="G689" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H689" t="n">
+        <v>400</v>
+      </c>
+      <c r="I689" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F690" t="n">
+        <v>400</v>
+      </c>
+      <c r="G690" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H690" t="n">
+        <v>400</v>
+      </c>
+      <c r="I690" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F691" t="n">
+        <v>400</v>
+      </c>
+      <c r="G691" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H691" t="n">
+        <v>400</v>
+      </c>
+      <c r="I691" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F692" t="n">
+        <v>400</v>
+      </c>
+      <c r="G692" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H692" t="n">
+        <v>400</v>
+      </c>
+      <c r="I692" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>45728.23007475695</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F693" t="n">
+        <v>400</v>
+      </c>
+      <c r="G693" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H693" t="n">
+        <v>400</v>
+      </c>
+      <c r="I693" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F694" t="n">
+        <v>400</v>
+      </c>
+      <c r="G694" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H694" t="n">
+        <v>400</v>
+      </c>
+      <c r="I694" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F695" t="n">
+        <v>400</v>
+      </c>
+      <c r="G695" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H695" t="n">
+        <v>400</v>
+      </c>
+      <c r="I695" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F696" t="n">
+        <v>400</v>
+      </c>
+      <c r="G696" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H696" t="n">
+        <v>400</v>
+      </c>
+      <c r="I696" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>45728.23009790509</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F697" t="n">
+        <v>400</v>
+      </c>
+      <c r="G697" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H697" t="n">
+        <v>400</v>
+      </c>
+      <c r="I697" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F698" t="n">
+        <v>400</v>
+      </c>
+      <c r="G698" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H698" t="n">
+        <v>400</v>
+      </c>
+      <c r="I698" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F699" t="n">
+        <v>400</v>
+      </c>
+      <c r="G699" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H699" t="n">
+        <v>400</v>
+      </c>
+      <c r="I699" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F700" t="n">
+        <v>400</v>
+      </c>
+      <c r="G700" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H700" t="n">
+        <v>400</v>
+      </c>
+      <c r="I700" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="n">
+        <v>45728.26777112269</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F701" t="n">
+        <v>400</v>
+      </c>
+      <c r="G701" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H701" t="n">
+        <v>400</v>
+      </c>
+      <c r="I701" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F702" t="n">
+        <v>400</v>
+      </c>
+      <c r="G702" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H702" t="n">
+        <v>400</v>
+      </c>
+      <c r="I702" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F703" t="n">
+        <v>400</v>
+      </c>
+      <c r="G703" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H703" t="n">
+        <v>400</v>
+      </c>
+      <c r="I703" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F704" t="n">
+        <v>400</v>
+      </c>
+      <c r="G704" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H704" t="n">
+        <v>400</v>
+      </c>
+      <c r="I704" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2" t="n">
+        <v>45728.26779438657</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F705" t="n">
+        <v>400</v>
+      </c>
+      <c r="G705" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H705" t="n">
+        <v>400</v>
+      </c>
+      <c r="I705" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F706" t="n">
+        <v>400</v>
+      </c>
+      <c r="G706" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H706" t="n">
+        <v>400</v>
+      </c>
+      <c r="I706" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F707" t="n">
+        <v>400</v>
+      </c>
+      <c r="G707" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H707" t="n">
+        <v>400</v>
+      </c>
+      <c r="I707" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F708" t="n">
+        <v>400</v>
+      </c>
+      <c r="G708" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H708" t="n">
+        <v>400</v>
+      </c>
+      <c r="I708" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2" t="n">
+        <v>45728.26781763889</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F709" t="n">
+        <v>400</v>
+      </c>
+      <c r="G709" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H709" t="n">
+        <v>400</v>
+      </c>
+      <c r="I709" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>45728.76791525463</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F710" t="n">
+        <v>400</v>
+      </c>
+      <c r="G710" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H710" t="n">
+        <v>400</v>
+      </c>
+      <c r="I710" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
+        <v>45728.76791525463</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F711" t="n">
+        <v>400</v>
+      </c>
+      <c r="G711" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H711" t="n">
+        <v>400</v>
+      </c>
+      <c r="I711" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>45728.76793732639</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F712" t="n">
+        <v>400</v>
+      </c>
+      <c r="G712" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H712" t="n">
+        <v>400</v>
+      </c>
+      <c r="I712" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>45728.76793732639</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F713" t="n">
+        <v>400</v>
+      </c>
+      <c r="G713" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H713" t="n">
+        <v>400</v>
+      </c>
+      <c r="I713" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
         <v>45728.76796047454</v>
       </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr">
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
         <is>
           <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
         </is>
       </c>
-      <c r="D688" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E688" t="inlineStr">
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
         <is>
           <t>0x3</t>
         </is>
       </c>
-      <c r="F688" t="n">
-        <v>400</v>
-      </c>
-      <c r="G688" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H688" t="n">
-        <v>400</v>
-      </c>
-      <c r="I688" t="n">
+      <c r="F714" t="n">
+        <v>400</v>
+      </c>
+      <c r="G714" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H714" t="n">
+        <v>400</v>
+      </c>
+      <c r="I714" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>45728.76796047454</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F715" t="n">
+        <v>400</v>
+      </c>
+      <c r="G715" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H715" t="n">
+        <v>400</v>
+      </c>
+      <c r="I715" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1375,966 +1375,123 @@
         <v>13</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45729.23225322917</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45729.23227436343</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45729.23229758102</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>总长</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>和校验</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>总长_DEC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID_DEC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>实际长度_DEC</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>和校验_DEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45725.07909302083</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H2" t="n">
-        <v>400</v>
-      </c>
-      <c r="I2" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45725.07911518519</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H3" t="n">
-        <v>400</v>
-      </c>
-      <c r="I3" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45725.07913833333</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>400</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45725.57923533564</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H5" t="n">
-        <v>400</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45725.57925716435</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>400</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H6" t="n">
-        <v>400</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45725.57928042824</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>400</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H7" t="n">
-        <v>400</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45726.07937777778</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H8" t="n">
-        <v>400</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45726.07939922454</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>400</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H9" t="n">
-        <v>400</v>
-      </c>
-      <c r="I9" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45726.07942256945</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>400</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H10" t="n">
-        <v>400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45726.57952</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>400</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H11" t="n">
-        <v>400</v>
-      </c>
-      <c r="I11" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45726.57954204861</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>400</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H12" t="n">
-        <v>400</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45726.57956549768</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>400</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H13" t="n">
-        <v>400</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45727.07966211806</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H14" t="n">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45727.07968420139</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H15" t="n">
-        <v>400</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45727.07970724537</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>400</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H16" t="n">
-        <v>400</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45727.57980457176</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>400</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H17" t="n">
-        <v>400</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45727.57982650463</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>400</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H18" t="n">
-        <v>400</v>
-      </c>
-      <c r="I18" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45727.57985059028</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0xe</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>400</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H19" t="n">
-        <v>400</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45728.07994677083</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0x01,0x86,</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H20" t="n">
-        <v>390</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45728.07996869213</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0x01,0x86,</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>400</v>
-      </c>
-      <c r="G21" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H21" t="n">
-        <v>390</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45728.07999162037</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0x01,0x86,</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>400</v>
-      </c>
-      <c r="G22" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H22" t="n">
-        <v>390</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45728.58008952547</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0x01,0x86,</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>400</v>
-      </c>
-      <c r="G23" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H23" t="n">
-        <v>390</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45728.5801115625</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0x01,0x86,</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>400</v>
-      </c>
-      <c r="G24" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H24" t="n">
-        <v>390</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45728.58013472222</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0x01,0x86,</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>400</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H25" t="n">
-        <v>390</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2397,6 +1554,1071 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45725.07909302083</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H2" t="n">
+        <v>400</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45725.07911518519</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>400</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H3" t="n">
+        <v>400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45725.07913833333</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>400</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>400</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45725.57923533564</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H5" t="n">
+        <v>400</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45725.57925716435</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H6" t="n">
+        <v>400</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45725.57928042824</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45726.07937777778</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H8" t="n">
+        <v>400</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45726.07939922454</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H9" t="n">
+        <v>400</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45726.07942256945</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H10" t="n">
+        <v>400</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45726.57952</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H11" t="n">
+        <v>400</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45726.57954204861</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H12" t="n">
+        <v>400</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45726.57956549768</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H13" t="n">
+        <v>400</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45727.07966211806</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H14" t="n">
+        <v>400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45727.07968420139</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45727.07970724537</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>400</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H16" t="n">
+        <v>400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45727.57980457176</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H17" t="n">
+        <v>400</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45727.57982650463</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H18" t="n">
+        <v>400</v>
+      </c>
+      <c r="I18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45727.57985059028</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H19" t="n">
+        <v>400</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45728.07994677083</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H20" t="n">
+        <v>390</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45728.07996869213</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H21" t="n">
+        <v>390</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45728.07999162037</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H22" t="n">
+        <v>390</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45728.58008952547</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H23" t="n">
+        <v>390</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45728.5801115625</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H24" t="n">
+        <v>390</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45728.58013472222</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H25" t="n">
+        <v>390</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45729.08023151621</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>390</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45729.08025335648</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>390</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45729.08027658565</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H28" t="n">
+        <v>390</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>总长</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>和校验</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>总长_DEC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID_DEC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>实际长度_DEC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>和校验_DEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45725.22919952546</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -3391,6 +3613,117 @@
         <v>400</v>
       </c>
       <c r="I28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45729.26805734954</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.26807929398</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.26810284722</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3405,7 +3738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4459,6 +4792,117 @@
         <v>3</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45729.26805734954</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.26807929398</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.26810284722</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1483,6 +1483,117 @@
         <v>400</v>
       </c>
       <c r="I28" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45729.73239443287</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.73241640046</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.73243972223</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1497,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2548,6 +2659,117 @@
         <v>390</v>
       </c>
       <c r="I28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45729.58037369213</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>390</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.58039555555</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>390</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.58041870371</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>390</v>
+      </c>
+      <c r="I31" t="n">
         <v>4</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered.xlsx
@@ -2784,7 +2784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3946,6 +3946,117 @@
         <v>400</v>
       </c>
       <c r="I31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45729.76820116898</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45729.7682231713</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45729.76824641204</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3960,7 +4071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5125,6 +5236,117 @@
         <v>3</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45729.76820116898</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45729.7682231713</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45729.76824641204</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
